--- a/src/test/resources/test-data/qa7/testData.xlsx
+++ b/src/test/resources/test-data/qa7/testData.xlsx
@@ -5,24 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vigneshwaran.sesurag\Gradle\chatr-e2e-automation-2\src\test\resources\test-data\qa7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vigneshwaran.sesurag\Gradle\CPP_Automation-Chatr\src\test\resources\test-data\qa7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8D5DDE-1620-401C-B1D5-444520C1C7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8920E6-01EE-45B9-BE7E-EBEB810445A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Voucher" sheetId="2" r:id="rId1"/>
     <sheet name="NAC_DataCreation" sheetId="3" r:id="rId2"/>
-    <sheet name="EAS" sheetId="4" r:id="rId3"/>
-    <sheet name="CTNDATA" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
-    <sheet name="NAC OLD" sheetId="9" r:id="rId8"/>
-    <sheet name="Voucher OLD" sheetId="10" r:id="rId9"/>
-    <sheet name="EAS OLD" sheetId="11" r:id="rId10"/>
+    <sheet name="NAC_Data" sheetId="12" r:id="rId3"/>
+    <sheet name="EAS" sheetId="4" r:id="rId4"/>
+    <sheet name="CTNDATA" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId8"/>
+    <sheet name="NAC OLD" sheetId="9" r:id="rId9"/>
+    <sheet name="Voucher OLD" sheetId="10" r:id="rId10"/>
+    <sheet name="EAS OLD" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="545">
   <si>
     <t>Voucher25</t>
   </si>
@@ -1677,6 +1678,9 @@
   </si>
   <si>
     <t>eas6</t>
+  </si>
+  <si>
+    <t>4169041183</t>
   </si>
 </sst>
 </file>
@@ -2803,6 +2807,1044 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6B3CDC-0AFC-4B53-A9D5-8ABE836A7404}">
+  <dimension ref="A1:N91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7109375" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="D2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="H2" t="s">
+        <v>341</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="J2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="L2" t="s">
+        <v>341</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="N2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3"/>
+      <c r="C3" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="D3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="H3" t="s">
+        <v>341</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" t="s">
+        <v>341</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="L3" t="s">
+        <v>341</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="N3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4"/>
+      <c r="C4" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F4" t="s">
+        <v>341</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H4" t="s">
+        <v>341</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" t="s">
+        <v>341</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="L4" t="s">
+        <v>341</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="N4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5"/>
+      <c r="C5" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="H5" t="s">
+        <v>341</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5"/>
+      <c r="K5" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="L5" t="s">
+        <v>341</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="N5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6"/>
+      <c r="C6" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="D6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H6" t="s">
+        <v>341</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6"/>
+      <c r="K6" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="L6" t="s">
+        <v>341</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="N6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7"/>
+      <c r="C7" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="D7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="H7" t="s">
+        <v>341</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7"/>
+      <c r="K7" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="L7" t="s">
+        <v>341</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="N7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8"/>
+      <c r="C8" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="D8" t="s">
+        <v>341</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H8" t="s">
+        <v>341</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8"/>
+      <c r="K8" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="L8" t="s">
+        <v>341</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="N8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9"/>
+      <c r="C9" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D9" t="s">
+        <v>341</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9" s="7"/>
+      <c r="K9" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="L9" t="s">
+        <v>341</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="N9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10"/>
+      <c r="C10" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="D10" t="s">
+        <v>341</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10" s="7"/>
+      <c r="K10" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="L10" t="s">
+        <v>341</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="N10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11"/>
+      <c r="C11" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D11" t="s">
+        <v>341</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H11"/>
+      <c r="K11" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="N11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12"/>
+      <c r="C12" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D12" t="s">
+        <v>341</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H12"/>
+      <c r="K12" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="N12" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13"/>
+      <c r="C13" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="H13"/>
+      <c r="K13" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="N13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14"/>
+      <c r="C14" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H14"/>
+      <c r="K14" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="N14" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15"/>
+      <c r="C15" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F15"/>
+      <c r="G15" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H15"/>
+      <c r="K15" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="N15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16"/>
+      <c r="C16" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F16"/>
+      <c r="G16" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="H16"/>
+      <c r="K16" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="N16" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17"/>
+      <c r="C17" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="H17"/>
+      <c r="K17" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18"/>
+      <c r="C18" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H18"/>
+      <c r="K18" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19"/>
+      <c r="C19" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="H19"/>
+      <c r="K19" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20"/>
+      <c r="D20"/>
+      <c r="E20" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H20"/>
+      <c r="K20" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21"/>
+      <c r="D21"/>
+      <c r="E21" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F21"/>
+      <c r="H21"/>
+      <c r="M21" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22"/>
+      <c r="D22"/>
+      <c r="E22" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F22"/>
+      <c r="H22"/>
+      <c r="M22" s="7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23"/>
+      <c r="D23"/>
+      <c r="E23" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F23"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24"/>
+      <c r="D24"/>
+      <c r="E24" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F24"/>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25"/>
+      <c r="D25"/>
+      <c r="E25" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F25"/>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26"/>
+      <c r="D26"/>
+      <c r="E26" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26" s="7"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27"/>
+      <c r="D27"/>
+      <c r="E27" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F27"/>
+      <c r="G27" s="7"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28"/>
+      <c r="D28"/>
+      <c r="E28" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28" s="7"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29"/>
+      <c r="D29"/>
+      <c r="E29" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29" s="7"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30"/>
+      <c r="D30"/>
+      <c r="E30" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30" s="7"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31"/>
+      <c r="D31"/>
+      <c r="E31" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F31"/>
+      <c r="G31" s="7"/>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32"/>
+      <c r="D32"/>
+      <c r="F32"/>
+      <c r="G32" s="7"/>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33"/>
+      <c r="D33"/>
+      <c r="F33"/>
+      <c r="G33" s="7"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34"/>
+      <c r="D34"/>
+      <c r="F34"/>
+      <c r="G34" s="7"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35"/>
+      <c r="D35"/>
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36"/>
+      <c r="D36"/>
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37"/>
+      <c r="D37"/>
+      <c r="F37"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38"/>
+      <c r="D38"/>
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39"/>
+      <c r="D39"/>
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40"/>
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41"/>
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B49"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B50"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B51"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E52" s="7"/>
+      <c r="F52"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C53" s="7"/>
+      <c r="D53"/>
+      <c r="E53" s="7"/>
+      <c r="F53"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C54" s="7"/>
+      <c r="D54"/>
+      <c r="E54" s="7"/>
+      <c r="F54"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C55" s="7"/>
+      <c r="D55"/>
+      <c r="E55" s="7"/>
+      <c r="F55"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C56" s="7"/>
+      <c r="D56"/>
+      <c r="E56" s="7"/>
+      <c r="F56"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C57" s="7"/>
+      <c r="D57"/>
+      <c r="E57" s="7"/>
+      <c r="F57"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C58" s="7"/>
+      <c r="D58"/>
+      <c r="E58" s="7"/>
+      <c r="F58"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C59" s="7"/>
+      <c r="D59"/>
+      <c r="E59" s="7"/>
+      <c r="F59"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60"/>
+      <c r="E60" s="7"/>
+      <c r="F60"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61"/>
+      <c r="E61" s="7"/>
+      <c r="F61"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62"/>
+      <c r="E62" s="7"/>
+      <c r="F62"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63"/>
+      <c r="E63" s="7"/>
+      <c r="F63"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64"/>
+      <c r="E64" s="7"/>
+      <c r="F64"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65"/>
+      <c r="E65" s="7"/>
+      <c r="F65"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66"/>
+      <c r="E66" s="7"/>
+      <c r="F66"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67"/>
+      <c r="E67" s="7"/>
+      <c r="F67"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68"/>
+      <c r="E68" s="7"/>
+      <c r="F68"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69"/>
+      <c r="E69" s="7"/>
+      <c r="F69"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70"/>
+      <c r="E70" s="7"/>
+      <c r="F70"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E71" s="7"/>
+      <c r="F71"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F72"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F73"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F74"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C75" s="7"/>
+      <c r="F75"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F76"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F77"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F78"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F79"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F80"/>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F81"/>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F82"/>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F83"/>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F84"/>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F85"/>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F86"/>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F87"/>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F88"/>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F89"/>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F90"/>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F91"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDD6BF5-C159-4766-92DA-0E15E04E773E}">
   <dimension ref="A1:E34"/>
   <sheetViews>
@@ -3088,8 +4130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A702005-EDFB-45BE-A884-6A9A5FF3F0F1}">
   <dimension ref="A1:C132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3301,6 +4343,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50DB6969-FCD4-4AC0-8731-C3FC2B56364B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD53744-91AA-45F2-BD5B-D22DA6D78137}">
   <dimension ref="A1:E34"/>
   <sheetViews>
@@ -3582,7 +4647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59C213A-05F4-4841-BAEC-85842C4D1CD7}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -3644,7 +4709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3BCABF-0B84-4F1D-A86D-03D73AE2839E}">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -3886,7 +4951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FB94A1-E8D6-4BE6-B882-526070DB15E4}">
   <dimension ref="A1:C51"/>
   <sheetViews>
@@ -4389,7 +5454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182267D9-48FB-4237-A38C-E4622CDC8171}">
   <dimension ref="A1:D127"/>
   <sheetViews>
@@ -5579,7 +6644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFF5CF3-7111-4487-862F-A50707F309E6}">
   <dimension ref="A1:C132"/>
   <sheetViews>
@@ -6045,1042 +7110,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6B3CDC-0AFC-4B53-A9D5-8ABE836A7404}">
-  <dimension ref="A1:N91"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7109375" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="D2" t="s">
-        <v>341</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="F2" t="s">
-        <v>341</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="H2" t="s">
-        <v>341</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="J2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="L2" t="s">
-        <v>341</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="N2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3"/>
-      <c r="C3" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="D3" t="s">
-        <v>341</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="F3" t="s">
-        <v>341</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="H3" t="s">
-        <v>341</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" t="s">
-        <v>341</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="L3" t="s">
-        <v>341</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="N3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4"/>
-      <c r="C4" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="D4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F4" t="s">
-        <v>341</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="H4" t="s">
-        <v>341</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" t="s">
-        <v>341</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="L4" t="s">
-        <v>341</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="N4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5"/>
-      <c r="C5" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="D5" t="s">
-        <v>341</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="F5" t="s">
-        <v>341</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="H5" t="s">
-        <v>341</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5"/>
-      <c r="K5" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="L5" t="s">
-        <v>341</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="N5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6"/>
-      <c r="C6" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="D6" t="s">
-        <v>341</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="F6"/>
-      <c r="G6" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="H6" t="s">
-        <v>341</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6"/>
-      <c r="K6" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="L6" t="s">
-        <v>341</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="N6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7"/>
-      <c r="C7" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="D7" t="s">
-        <v>341</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="F7"/>
-      <c r="G7" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="H7" t="s">
-        <v>341</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7"/>
-      <c r="K7" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="L7" t="s">
-        <v>341</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="N7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8"/>
-      <c r="C8" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="D8" t="s">
-        <v>341</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="F8"/>
-      <c r="G8" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="H8" t="s">
-        <v>341</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8"/>
-      <c r="K8" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="L8" t="s">
-        <v>341</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="N8" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9"/>
-      <c r="C9" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="D9" t="s">
-        <v>341</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="F9"/>
-      <c r="G9" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="H9"/>
-      <c r="I9" s="7"/>
-      <c r="K9" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="L9" t="s">
-        <v>341</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="N9" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10"/>
-      <c r="C10" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="D10" t="s">
-        <v>341</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="F10"/>
-      <c r="G10" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="H10"/>
-      <c r="I10" s="7"/>
-      <c r="K10" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="L10" t="s">
-        <v>341</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="N10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11"/>
-      <c r="C11" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="D11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="F11"/>
-      <c r="G11" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="H11"/>
-      <c r="K11" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="N11" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12"/>
-      <c r="C12" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="D12" t="s">
-        <v>341</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="F12"/>
-      <c r="G12" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="H12"/>
-      <c r="K12" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="N12" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13"/>
-      <c r="C13" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="F13"/>
-      <c r="G13" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="H13"/>
-      <c r="K13" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="N13" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14"/>
-      <c r="C14" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="D14"/>
-      <c r="E14" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="F14"/>
-      <c r="G14" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="H14"/>
-      <c r="K14" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="N14" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15"/>
-      <c r="C15" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="D15"/>
-      <c r="E15" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="F15"/>
-      <c r="G15" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="H15"/>
-      <c r="K15" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="N15" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16"/>
-      <c r="C16" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="D16"/>
-      <c r="E16" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F16"/>
-      <c r="G16" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="H16"/>
-      <c r="K16" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="N16" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17"/>
-      <c r="C17" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="D17"/>
-      <c r="E17" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="F17"/>
-      <c r="G17" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="H17"/>
-      <c r="K17" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18"/>
-      <c r="C18" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="D18"/>
-      <c r="E18" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="F18"/>
-      <c r="G18" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="H18"/>
-      <c r="K18" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19"/>
-      <c r="C19" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="D19"/>
-      <c r="E19" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="F19"/>
-      <c r="G19" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="H19"/>
-      <c r="K19" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20"/>
-      <c r="D20"/>
-      <c r="E20" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="F20"/>
-      <c r="G20" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="H20"/>
-      <c r="K20" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21"/>
-      <c r="D21"/>
-      <c r="E21" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="F21"/>
-      <c r="H21"/>
-      <c r="M21" s="7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22"/>
-      <c r="D22"/>
-      <c r="E22" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="F22"/>
-      <c r="H22"/>
-      <c r="M22" s="7" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23"/>
-      <c r="D23"/>
-      <c r="E23" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="F23"/>
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24"/>
-      <c r="D24"/>
-      <c r="E24" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="F24"/>
-      <c r="H24"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25"/>
-      <c r="D25"/>
-      <c r="E25" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="F25"/>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26"/>
-      <c r="D26"/>
-      <c r="E26" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F26"/>
-      <c r="G26" s="7"/>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27"/>
-      <c r="D27"/>
-      <c r="E27" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="F27"/>
-      <c r="G27" s="7"/>
-      <c r="H27"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28"/>
-      <c r="D28"/>
-      <c r="E28" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="F28"/>
-      <c r="G28" s="7"/>
-      <c r="H28"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29"/>
-      <c r="D29"/>
-      <c r="E29" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="F29"/>
-      <c r="G29" s="7"/>
-      <c r="H29"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30"/>
-      <c r="D30"/>
-      <c r="E30" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="F30"/>
-      <c r="G30" s="7"/>
-      <c r="H30"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31"/>
-      <c r="D31"/>
-      <c r="E31" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="F31"/>
-      <c r="G31" s="7"/>
-      <c r="H31"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32"/>
-      <c r="D32"/>
-      <c r="F32"/>
-      <c r="G32" s="7"/>
-      <c r="H32"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33"/>
-      <c r="D33"/>
-      <c r="F33"/>
-      <c r="G33" s="7"/>
-      <c r="H33"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34"/>
-      <c r="D34"/>
-      <c r="F34"/>
-      <c r="G34" s="7"/>
-      <c r="H34"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35"/>
-      <c r="D35"/>
-      <c r="F35"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36"/>
-      <c r="D36"/>
-      <c r="F36"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37"/>
-      <c r="D37"/>
-      <c r="F37"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38"/>
-      <c r="D38"/>
-      <c r="F38"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39"/>
-      <c r="D39"/>
-      <c r="F39"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40"/>
-      <c r="D40"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41"/>
-      <c r="D41"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B49"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B50"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B51"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E52" s="7"/>
-      <c r="F52"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="7"/>
-      <c r="D53"/>
-      <c r="E53" s="7"/>
-      <c r="F53"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="7"/>
-      <c r="D54"/>
-      <c r="E54" s="7"/>
-      <c r="F54"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="7"/>
-      <c r="D55"/>
-      <c r="E55" s="7"/>
-      <c r="F55"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="7"/>
-      <c r="D56"/>
-      <c r="E56" s="7"/>
-      <c r="F56"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="7"/>
-      <c r="D57"/>
-      <c r="E57" s="7"/>
-      <c r="F57"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="7"/>
-      <c r="D58"/>
-      <c r="E58" s="7"/>
-      <c r="F58"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C59" s="7"/>
-      <c r="D59"/>
-      <c r="E59" s="7"/>
-      <c r="F59"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60"/>
-      <c r="E60" s="7"/>
-      <c r="F60"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61"/>
-      <c r="E61" s="7"/>
-      <c r="F61"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62"/>
-      <c r="E62" s="7"/>
-      <c r="F62"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63"/>
-      <c r="E63" s="7"/>
-      <c r="F63"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64"/>
-      <c r="E64" s="7"/>
-      <c r="F64"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65"/>
-      <c r="E65" s="7"/>
-      <c r="F65"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66"/>
-      <c r="E66" s="7"/>
-      <c r="F66"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67"/>
-      <c r="E67" s="7"/>
-      <c r="F67"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68"/>
-      <c r="E68" s="7"/>
-      <c r="F68"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69"/>
-      <c r="E69" s="7"/>
-      <c r="F69"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70"/>
-      <c r="E70" s="7"/>
-      <c r="F70"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E71" s="7"/>
-      <c r="F71"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F72"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F73"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F74"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C75" s="7"/>
-      <c r="F75"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F76"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F77"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F78"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F79"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F80"/>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F81"/>
-    </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F82"/>
-    </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F83"/>
-    </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F84"/>
-    </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F85"/>
-    </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F86"/>
-    </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F87"/>
-    </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F88"/>
-    </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F89"/>
-    </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F90"/>
-    </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F91"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/test/resources/test-data/qa7/testData.xlsx
+++ b/src/test/resources/test-data/qa7/testData.xlsx
@@ -1,29 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vigneshwaran.sesurag\Gradle\CPP_Automation-Chatr\src\test\resources\test-data\qa7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sravanthi.Thammera\Downloads\Vignesh_Automation\src\test\resources\test-data\qa7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8920E6-01EE-45B9-BE7E-EBEB810445A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52638D1-45E1-4877-A8FC-5DB164938FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Voucher" sheetId="2" r:id="rId1"/>
-    <sheet name="NAC_DataCreation" sheetId="3" r:id="rId2"/>
+    <sheet name="NACActivation" sheetId="3" r:id="rId2"/>
     <sheet name="NAC_Data" sheetId="12" r:id="rId3"/>
-    <sheet name="EAS" sheetId="4" r:id="rId4"/>
-    <sheet name="CTNDATA" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId8"/>
-    <sheet name="NAC OLD" sheetId="9" r:id="rId9"/>
-    <sheet name="Voucher OLD" sheetId="10" r:id="rId10"/>
-    <sheet name="EAS OLD" sheetId="11" r:id="rId11"/>
+    <sheet name="NACdatainput" sheetId="13" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="14" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="15" r:id="rId6"/>
+    <sheet name="EAS" sheetId="4" r:id="rId7"/>
+    <sheet name="CTNDATA" sheetId="5" r:id="rId8"/>
+    <sheet name="NACData" sheetId="7" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId11"/>
+    <sheet name="NAC OLD" sheetId="9" r:id="rId12"/>
+    <sheet name="Voucher OLD" sheetId="10" r:id="rId13"/>
+    <sheet name="EAS OLD" sheetId="11" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="551">
   <si>
     <t>Voucher25</t>
   </si>
@@ -1681,6 +1684,24 @@
   </si>
   <si>
     <t>4169041183</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>vigneshwaran.sesurag@rci.rogers.com</t>
+  </si>
+  <si>
+    <t>EASRegistration</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>emaildata</t>
+  </si>
+  <si>
+    <t>45</t>
   </si>
 </sst>
 </file>
@@ -1782,7 +1803,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1805,6 +1826,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2092,26 +2116,26 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7109375" style="3"/>
+    <col min="1" max="1" width="12.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.54296875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.81640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2155,7 +2179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
       <c r="B2"/>
       <c r="C2" s="7"/>
@@ -2171,7 +2195,7 @@
       <c r="M2" s="7"/>
       <c r="N2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3"/>
       <c r="C3" s="7"/>
@@ -2187,7 +2211,7 @@
       <c r="M3" s="7"/>
       <c r="N3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4"/>
       <c r="C4" s="7"/>
@@ -2203,7 +2227,7 @@
       <c r="M4" s="7"/>
       <c r="N4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5"/>
       <c r="C5" s="7"/>
@@ -2219,7 +2243,7 @@
       <c r="M5" s="7"/>
       <c r="N5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6"/>
       <c r="C6" s="7"/>
@@ -2235,7 +2259,7 @@
       <c r="M6" s="7"/>
       <c r="N6"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7"/>
       <c r="C7" s="7"/>
@@ -2251,7 +2275,7 @@
       <c r="M7" s="7"/>
       <c r="N7"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8"/>
       <c r="C8" s="7"/>
@@ -2267,7 +2291,7 @@
       <c r="M8" s="7"/>
       <c r="N8"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9"/>
       <c r="C9" s="7"/>
@@ -2282,7 +2306,7 @@
       <c r="M9" s="7"/>
       <c r="N9"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10"/>
       <c r="C10" s="7"/>
@@ -2297,7 +2321,7 @@
       <c r="M10" s="7"/>
       <c r="N10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11"/>
       <c r="C11" s="7"/>
@@ -2310,7 +2334,7 @@
       <c r="M11" s="7"/>
       <c r="N11"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12"/>
       <c r="C12" s="7"/>
@@ -2323,7 +2347,7 @@
       <c r="M12" s="7"/>
       <c r="N12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13"/>
       <c r="C13" s="7"/>
@@ -2336,7 +2360,7 @@
       <c r="M13" s="7"/>
       <c r="N13"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14"/>
       <c r="C14" s="7"/>
@@ -2349,7 +2373,7 @@
       <c r="M14" s="7"/>
       <c r="N14"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15"/>
       <c r="C15" s="7"/>
@@ -2362,7 +2386,7 @@
       <c r="M15" s="7"/>
       <c r="N15"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16"/>
       <c r="C16" s="7"/>
@@ -2375,7 +2399,7 @@
       <c r="M16" s="7"/>
       <c r="N16"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17"/>
       <c r="C17" s="7"/>
@@ -2387,7 +2411,7 @@
       <c r="K17" s="10"/>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18"/>
       <c r="C18" s="7"/>
@@ -2399,7 +2423,7 @@
       <c r="K18" s="10"/>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19"/>
       <c r="C19" s="7"/>
@@ -2411,7 +2435,7 @@
       <c r="K19" s="10"/>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
       <c r="B20"/>
       <c r="D20"/>
@@ -2422,7 +2446,7 @@
       <c r="K20" s="10"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21"/>
       <c r="D21"/>
@@ -2431,7 +2455,7 @@
       <c r="H21"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22"/>
       <c r="D22"/>
@@ -2440,7 +2464,7 @@
       <c r="H22"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
       <c r="B23"/>
       <c r="D23"/>
@@ -2448,7 +2472,7 @@
       <c r="F23"/>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24"/>
       <c r="D24"/>
@@ -2456,7 +2480,7 @@
       <c r="F24"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25"/>
       <c r="D25"/>
@@ -2464,7 +2488,7 @@
       <c r="F25"/>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
       <c r="B26"/>
       <c r="D26"/>
@@ -2473,7 +2497,7 @@
       <c r="G26" s="7"/>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
       <c r="B27"/>
       <c r="D27"/>
@@ -2482,7 +2506,7 @@
       <c r="G27" s="7"/>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
       <c r="B28"/>
       <c r="D28"/>
@@ -2491,7 +2515,7 @@
       <c r="G28" s="7"/>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
       <c r="B29"/>
       <c r="D29"/>
@@ -2500,7 +2524,7 @@
       <c r="G29" s="7"/>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="7"/>
       <c r="B30"/>
       <c r="D30"/>
@@ -2509,7 +2533,7 @@
       <c r="G30" s="7"/>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="7"/>
       <c r="B31"/>
       <c r="D31"/>
@@ -2518,7 +2542,7 @@
       <c r="G31" s="7"/>
       <c r="H31"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="7"/>
       <c r="B32"/>
       <c r="D32"/>
@@ -2526,7 +2550,7 @@
       <c r="G32" s="7"/>
       <c r="H32"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
       <c r="B33"/>
       <c r="D33"/>
@@ -2534,7 +2558,7 @@
       <c r="G33" s="7"/>
       <c r="H33"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
       <c r="B34"/>
       <c r="D34"/>
@@ -2542,262 +2566,262 @@
       <c r="G34" s="7"/>
       <c r="H34"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="7"/>
       <c r="B35"/>
       <c r="D35"/>
       <c r="F35"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="7"/>
       <c r="B36"/>
       <c r="D36"/>
       <c r="F36"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
       <c r="B37"/>
       <c r="D37"/>
       <c r="F37"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
       <c r="B38"/>
       <c r="D38"/>
       <c r="F38"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
       <c r="B39"/>
       <c r="D39"/>
       <c r="F39"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="7"/>
       <c r="B40"/>
       <c r="D40"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="7"/>
       <c r="B41"/>
       <c r="D41"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B42"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B44"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B46"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B48"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B49"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B50"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B51"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E52" s="7"/>
       <c r="F52"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C53" s="7"/>
       <c r="D53"/>
       <c r="E53" s="7"/>
       <c r="F53"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C54" s="7"/>
       <c r="D54"/>
       <c r="E54" s="7"/>
       <c r="F54"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C55" s="7"/>
       <c r="D55"/>
       <c r="E55" s="7"/>
       <c r="F55"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C56" s="7"/>
       <c r="D56"/>
       <c r="E56" s="7"/>
       <c r="F56"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C57" s="7"/>
       <c r="D57"/>
       <c r="E57" s="7"/>
       <c r="F57"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C58" s="7"/>
       <c r="D58"/>
       <c r="E58" s="7"/>
       <c r="F58"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C59" s="7"/>
       <c r="D59"/>
       <c r="E59" s="7"/>
       <c r="F59"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60"/>
       <c r="E60" s="7"/>
       <c r="F60"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61"/>
       <c r="E61" s="7"/>
       <c r="F61"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62"/>
       <c r="E62" s="7"/>
       <c r="F62"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63"/>
       <c r="E63" s="7"/>
       <c r="F63"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64"/>
       <c r="E64" s="7"/>
       <c r="F64"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65"/>
       <c r="E65" s="7"/>
       <c r="F65"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66"/>
       <c r="E66" s="7"/>
       <c r="F66"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="7"/>
       <c r="C67" s="7"/>
       <c r="D67"/>
       <c r="E67" s="7"/>
       <c r="F67"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68"/>
       <c r="E68" s="7"/>
       <c r="F68"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69"/>
       <c r="E69" s="7"/>
       <c r="F69"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70"/>
       <c r="E70" s="7"/>
       <c r="F70"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E71" s="7"/>
       <c r="F71"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F72"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F73"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F74"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C75" s="7"/>
       <c r="F75"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F76"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F77"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F78"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F79"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F80"/>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F81"/>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F82"/>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F83"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F84"/>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F85"/>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F86"/>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F87"/>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F88"/>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F89"/>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F90"/>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F91"/>
     </row>
   </sheetData>
@@ -2807,2151 +2831,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6B3CDC-0AFC-4B53-A9D5-8ABE836A7404}">
-  <dimension ref="A1:N91"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7109375" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="D2" t="s">
-        <v>341</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="F2" t="s">
-        <v>341</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="H2" t="s">
-        <v>341</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="J2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="L2" t="s">
-        <v>341</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="N2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3"/>
-      <c r="C3" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="D3" t="s">
-        <v>341</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="F3" t="s">
-        <v>341</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="H3" t="s">
-        <v>341</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" t="s">
-        <v>341</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="L3" t="s">
-        <v>341</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="N3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4"/>
-      <c r="C4" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="D4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F4" t="s">
-        <v>341</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="H4" t="s">
-        <v>341</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" t="s">
-        <v>341</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="L4" t="s">
-        <v>341</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="N4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5"/>
-      <c r="C5" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="D5" t="s">
-        <v>341</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="F5" t="s">
-        <v>341</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="H5" t="s">
-        <v>341</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5"/>
-      <c r="K5" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="L5" t="s">
-        <v>341</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="N5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6"/>
-      <c r="C6" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="D6" t="s">
-        <v>341</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="F6"/>
-      <c r="G6" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="H6" t="s">
-        <v>341</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6"/>
-      <c r="K6" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="L6" t="s">
-        <v>341</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="N6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7"/>
-      <c r="C7" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="D7" t="s">
-        <v>341</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="F7"/>
-      <c r="G7" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="H7" t="s">
-        <v>341</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7"/>
-      <c r="K7" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="L7" t="s">
-        <v>341</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="N7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8"/>
-      <c r="C8" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="D8" t="s">
-        <v>341</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="F8"/>
-      <c r="G8" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="H8" t="s">
-        <v>341</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8"/>
-      <c r="K8" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="L8" t="s">
-        <v>341</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="N8" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9"/>
-      <c r="C9" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="D9" t="s">
-        <v>341</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="F9"/>
-      <c r="G9" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="H9"/>
-      <c r="I9" s="7"/>
-      <c r="K9" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="L9" t="s">
-        <v>341</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="N9" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10"/>
-      <c r="C10" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="D10" t="s">
-        <v>341</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="F10"/>
-      <c r="G10" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="H10"/>
-      <c r="I10" s="7"/>
-      <c r="K10" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="L10" t="s">
-        <v>341</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="N10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11"/>
-      <c r="C11" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="D11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="F11"/>
-      <c r="G11" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="H11"/>
-      <c r="K11" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="N11" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12"/>
-      <c r="C12" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="D12" t="s">
-        <v>341</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="F12"/>
-      <c r="G12" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="H12"/>
-      <c r="K12" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="N12" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13"/>
-      <c r="C13" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="F13"/>
-      <c r="G13" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="H13"/>
-      <c r="K13" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="N13" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14"/>
-      <c r="C14" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="D14"/>
-      <c r="E14" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="F14"/>
-      <c r="G14" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="H14"/>
-      <c r="K14" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="N14" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15"/>
-      <c r="C15" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="D15"/>
-      <c r="E15" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="F15"/>
-      <c r="G15" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="H15"/>
-      <c r="K15" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="N15" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16"/>
-      <c r="C16" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="D16"/>
-      <c r="E16" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F16"/>
-      <c r="G16" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="H16"/>
-      <c r="K16" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="N16" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17"/>
-      <c r="C17" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="D17"/>
-      <c r="E17" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="F17"/>
-      <c r="G17" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="H17"/>
-      <c r="K17" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18"/>
-      <c r="C18" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="D18"/>
-      <c r="E18" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="F18"/>
-      <c r="G18" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="H18"/>
-      <c r="K18" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19"/>
-      <c r="C19" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="D19"/>
-      <c r="E19" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="F19"/>
-      <c r="G19" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="H19"/>
-      <c r="K19" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20"/>
-      <c r="D20"/>
-      <c r="E20" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="F20"/>
-      <c r="G20" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="H20"/>
-      <c r="K20" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21"/>
-      <c r="D21"/>
-      <c r="E21" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="F21"/>
-      <c r="H21"/>
-      <c r="M21" s="7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22"/>
-      <c r="D22"/>
-      <c r="E22" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="F22"/>
-      <c r="H22"/>
-      <c r="M22" s="7" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23"/>
-      <c r="D23"/>
-      <c r="E23" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="F23"/>
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24"/>
-      <c r="D24"/>
-      <c r="E24" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="F24"/>
-      <c r="H24"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25"/>
-      <c r="D25"/>
-      <c r="E25" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="F25"/>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26"/>
-      <c r="D26"/>
-      <c r="E26" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F26"/>
-      <c r="G26" s="7"/>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27"/>
-      <c r="D27"/>
-      <c r="E27" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="F27"/>
-      <c r="G27" s="7"/>
-      <c r="H27"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28"/>
-      <c r="D28"/>
-      <c r="E28" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="F28"/>
-      <c r="G28" s="7"/>
-      <c r="H28"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29"/>
-      <c r="D29"/>
-      <c r="E29" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="F29"/>
-      <c r="G29" s="7"/>
-      <c r="H29"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30"/>
-      <c r="D30"/>
-      <c r="E30" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="F30"/>
-      <c r="G30" s="7"/>
-      <c r="H30"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31"/>
-      <c r="D31"/>
-      <c r="E31" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="F31"/>
-      <c r="G31" s="7"/>
-      <c r="H31"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32"/>
-      <c r="D32"/>
-      <c r="F32"/>
-      <c r="G32" s="7"/>
-      <c r="H32"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33"/>
-      <c r="D33"/>
-      <c r="F33"/>
-      <c r="G33" s="7"/>
-      <c r="H33"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34"/>
-      <c r="D34"/>
-      <c r="F34"/>
-      <c r="G34" s="7"/>
-      <c r="H34"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35"/>
-      <c r="D35"/>
-      <c r="F35"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36"/>
-      <c r="D36"/>
-      <c r="F36"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37"/>
-      <c r="D37"/>
-      <c r="F37"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38"/>
-      <c r="D38"/>
-      <c r="F38"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39"/>
-      <c r="D39"/>
-      <c r="F39"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40"/>
-      <c r="D40"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41"/>
-      <c r="D41"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B49"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B50"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B51"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E52" s="7"/>
-      <c r="F52"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="7"/>
-      <c r="D53"/>
-      <c r="E53" s="7"/>
-      <c r="F53"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="7"/>
-      <c r="D54"/>
-      <c r="E54" s="7"/>
-      <c r="F54"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="7"/>
-      <c r="D55"/>
-      <c r="E55" s="7"/>
-      <c r="F55"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="7"/>
-      <c r="D56"/>
-      <c r="E56" s="7"/>
-      <c r="F56"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="7"/>
-      <c r="D57"/>
-      <c r="E57" s="7"/>
-      <c r="F57"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="7"/>
-      <c r="D58"/>
-      <c r="E58" s="7"/>
-      <c r="F58"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C59" s="7"/>
-      <c r="D59"/>
-      <c r="E59" s="7"/>
-      <c r="F59"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60"/>
-      <c r="E60" s="7"/>
-      <c r="F60"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61"/>
-      <c r="E61" s="7"/>
-      <c r="F61"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62"/>
-      <c r="E62" s="7"/>
-      <c r="F62"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63"/>
-      <c r="E63" s="7"/>
-      <c r="F63"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64"/>
-      <c r="E64" s="7"/>
-      <c r="F64"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65"/>
-      <c r="E65" s="7"/>
-      <c r="F65"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66"/>
-      <c r="E66" s="7"/>
-      <c r="F66"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67"/>
-      <c r="E67" s="7"/>
-      <c r="F67"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68"/>
-      <c r="E68" s="7"/>
-      <c r="F68"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69"/>
-      <c r="E69" s="7"/>
-      <c r="F69"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70"/>
-      <c r="E70" s="7"/>
-      <c r="F70"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E71" s="7"/>
-      <c r="F71"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F72"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F73"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F74"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C75" s="7"/>
-      <c r="F75"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F76"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F77"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F78"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F79"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F80"/>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F81"/>
-    </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F82"/>
-    </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F83"/>
-    </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F84"/>
-    </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F85"/>
-    </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F86"/>
-    </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F87"/>
-    </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F88"/>
-    </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F89"/>
-    </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F90"/>
-    </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F91"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDD6BF5-C159-4766-92DA-0E15E04E773E}">
-  <dimension ref="A1:E34"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>463</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>515</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>462</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>513</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>454</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>172</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>450</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>514</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="5"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="5"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" xr:uid="{2F057C07-CF5C-4513-BCE7-FB83ABD01A12}"/>
-    <hyperlink ref="B10" r:id="rId2" xr:uid="{0D19E48E-6F38-4893-A822-2BA3920D94AD}"/>
-    <hyperlink ref="B14" r:id="rId3" xr:uid="{108F8518-511C-4C88-86EE-D91E1722DF82}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{80EB9753-C97B-4084-8122-0BFEACD7FD38}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{24E432C0-9FFE-419D-A490-4B38B31A015C}"/>
-    <hyperlink ref="B4" r:id="rId6" xr:uid="{A54FF614-4C1A-4DDE-84AF-31A7062DB4F8}"/>
-    <hyperlink ref="B3" r:id="rId7" xr:uid="{2755C432-4DDA-44FE-AFE5-3148303F001D}"/>
-    <hyperlink ref="B2" r:id="rId8" xr:uid="{5766B7EA-84EF-4601-8E83-17FDFC1ACE15}"/>
-    <hyperlink ref="B7" r:id="rId9" xr:uid="{092C6560-7E94-4E60-A6A7-B679999EFB8A}"/>
-    <hyperlink ref="B5" r:id="rId10" xr:uid="{D2F8AA36-080E-4FC2-A827-5B503E2E5519}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{F6023B5A-9E26-4F18-B85F-633C57F0092F}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{45D830EC-EEA8-43E0-A952-067DCF4D366E}"/>
-    <hyperlink ref="B15" r:id="rId13" xr:uid="{FFC4D18B-F947-4C00-ADC7-D8F2DD58F160}"/>
-    <hyperlink ref="B11" r:id="rId14" xr:uid="{C442A289-A23C-45C1-8F6E-7C3DFF25846D}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A702005-EDFB-45BE-A884-6A9A5FF3F0F1}">
-  <dimension ref="A1:C132"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-    </row>
-    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C74" s="6"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="6"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>170</v>
-      </c>
-      <c r="B132" t="s">
-        <v>171</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50DB6969-FCD4-4AC0-8731-C3FC2B56364B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>544</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD53744-91AA-45F2-BD5B-D22DA6D78137}">
-  <dimension ref="A1:E34"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>463</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>515</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>462</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>513</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>454</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>172</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>450</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>514</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="5"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="5"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" xr:uid="{F15E7C03-31F5-4E7E-A732-AE27AD8D8035}"/>
-    <hyperlink ref="B10" r:id="rId2" xr:uid="{C107ED62-FCA6-40E9-A4D8-7ACE6E998015}"/>
-    <hyperlink ref="B14" r:id="rId3" xr:uid="{EDE8390A-2112-48DF-91AA-AC4C363B3272}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{0C865CB3-8E13-42E0-9596-156DCBD22BB6}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{B55188D8-78E5-4E62-91E8-642B099F7E53}"/>
-    <hyperlink ref="B4" r:id="rId6" xr:uid="{6CB850C9-7EB2-41C0-BC80-26241F756E41}"/>
-    <hyperlink ref="B3" r:id="rId7" xr:uid="{524850AD-3CA8-478D-AC04-01BD30C30A87}"/>
-    <hyperlink ref="B2" r:id="rId8" xr:uid="{662460A1-632E-484B-9D7E-0D2DDDC2B9AA}"/>
-    <hyperlink ref="B7" r:id="rId9" xr:uid="{F66C5754-F8C1-49AB-A63A-210F88D63840}"/>
-    <hyperlink ref="B5" r:id="rId10" xr:uid="{ED402730-F53F-4F93-B5D8-38268D24387B}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{9057E948-0C87-48C8-8B0B-FA4A85FAF335}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{03A2E950-6732-44C2-9B7D-C4324D17A868}"/>
-    <hyperlink ref="B15" r:id="rId13" xr:uid="{80E20A1F-3D50-4BE4-BF9A-E944D8EF33A6}"/>
-    <hyperlink ref="B11" r:id="rId14" xr:uid="{919C9DD3-448D-4D57-BEC7-F5151B9C78AF}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59C213A-05F4-4841-BAEC-85842C4D1CD7}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3BCABF-0B84-4F1D-A86D-03D73AE2839E}">
-  <dimension ref="A1:D26"/>
-  <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" t="s">
-        <v>459</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" t="s">
-        <v>459</v>
-      </c>
-      <c r="C4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" t="s">
-        <v>459</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" s="11">
-        <v>45480</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" t="s">
-        <v>459</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" t="s">
-        <v>459</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" t="s">
-        <v>459</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FB94A1-E8D6-4BE6-B882-526070DB15E4}">
   <dimension ref="A1:C51"/>
   <sheetViews>
@@ -4959,14 +2838,14 @@
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>30</v>
       </c>
@@ -4977,7 +2856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>248</v>
       </c>
@@ -4988,7 +2867,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>249</v>
       </c>
@@ -4999,7 +2878,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>250</v>
       </c>
@@ -5010,7 +2889,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>251</v>
       </c>
@@ -5021,7 +2900,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>252</v>
       </c>
@@ -5032,7 +2911,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>253</v>
       </c>
@@ -5043,7 +2922,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>254</v>
       </c>
@@ -5054,7 +2933,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>255</v>
       </c>
@@ -5065,7 +2944,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>256</v>
       </c>
@@ -5076,7 +2955,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>257</v>
       </c>
@@ -5087,7 +2966,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>258</v>
       </c>
@@ -5098,7 +2977,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>259</v>
       </c>
@@ -5109,7 +2988,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>260</v>
       </c>
@@ -5120,7 +2999,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>261</v>
       </c>
@@ -5131,7 +3010,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>262</v>
       </c>
@@ -5142,7 +3021,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>263</v>
       </c>
@@ -5153,7 +3032,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>264</v>
       </c>
@@ -5164,7 +3043,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>265</v>
       </c>
@@ -5175,7 +3054,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>266</v>
       </c>
@@ -5186,7 +3065,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>267</v>
       </c>
@@ -5197,7 +3076,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>268</v>
       </c>
@@ -5208,7 +3087,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>269</v>
       </c>
@@ -5219,7 +3098,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>270</v>
       </c>
@@ -5230,7 +3109,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>271</v>
       </c>
@@ -5241,7 +3120,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>272</v>
       </c>
@@ -5249,7 +3128,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>273</v>
       </c>
@@ -5257,7 +3136,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>274</v>
       </c>
@@ -5265,7 +3144,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>275</v>
       </c>
@@ -5273,7 +3152,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>276</v>
       </c>
@@ -5281,7 +3160,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>277</v>
       </c>
@@ -5289,7 +3168,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>278</v>
       </c>
@@ -5297,7 +3176,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>279</v>
       </c>
@@ -5305,7 +3184,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>280</v>
       </c>
@@ -5313,7 +3192,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>281</v>
       </c>
@@ -5321,7 +3200,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>282</v>
       </c>
@@ -5329,7 +3208,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>283</v>
       </c>
@@ -5337,7 +3216,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
         <v>284</v>
       </c>
@@ -5345,7 +3224,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>285</v>
       </c>
@@ -5353,7 +3232,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
         <v>286</v>
       </c>
@@ -5361,7 +3240,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
         <v>287</v>
       </c>
@@ -5369,7 +3248,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>288</v>
       </c>
@@ -5377,7 +3256,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
         <v>289</v>
       </c>
@@ -5385,7 +3264,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
         <v>290</v>
       </c>
@@ -5393,7 +3272,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
         <v>291</v>
       </c>
@@ -5401,7 +3280,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
         <v>292</v>
       </c>
@@ -5409,7 +3288,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
         <v>293</v>
       </c>
@@ -5417,7 +3296,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
         <v>294</v>
       </c>
@@ -5425,7 +3304,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
         <v>295</v>
       </c>
@@ -5433,7 +3312,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
         <v>296</v>
       </c>
@@ -5441,7 +3320,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
         <v>297</v>
       </c>
@@ -5454,7 +3333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182267D9-48FB-4237-A38C-E4622CDC8171}">
   <dimension ref="A1:D127"/>
   <sheetViews>
@@ -5462,15 +3341,15 @@
       <selection activeCell="A36" sqref="A36:C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" customWidth="1"/>
+    <col min="2" max="2" width="39.1796875" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -5481,7 +3360,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>4168171261</v>
       </c>
@@ -5492,7 +3371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -5503,7 +3382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -5514,7 +3393,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -5525,7 +3404,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -5536,7 +3415,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>37</v>
       </c>
@@ -5547,7 +3426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -5558,7 +3437,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -5569,7 +3448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -5580,7 +3459,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -5591,7 +3470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -5602,7 +3481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -5613,7 +3492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -5624,7 +3503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -5635,7 +3514,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -5649,7 +3528,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -5663,7 +3542,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -5677,7 +3556,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -5691,7 +3570,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -5705,7 +3584,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>122</v>
       </c>
@@ -5719,7 +3598,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>108</v>
       </c>
@@ -5733,7 +3612,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>125</v>
       </c>
@@ -5747,7 +3626,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>111</v>
       </c>
@@ -5761,7 +3640,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -5772,7 +3651,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>445</v>
       </c>
@@ -5786,12 +3665,12 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>193</v>
       </c>
@@ -5805,7 +3684,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>448</v>
       </c>
@@ -5819,7 +3698,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>109</v>
       </c>
@@ -5833,7 +3712,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>110</v>
       </c>
@@ -5847,7 +3726,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>181</v>
       </c>
@@ -5861,7 +3740,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>123</v>
       </c>
@@ -5875,7 +3754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B35" s="5" t="s">
         <v>138</v>
       </c>
@@ -5886,7 +3765,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>112</v>
       </c>
@@ -5900,12 +3779,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -5919,7 +3798,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>108</v>
       </c>
@@ -5933,7 +3812,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>175</v>
       </c>
@@ -5947,7 +3826,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>175</v>
       </c>
@@ -5961,7 +3840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>108</v>
       </c>
@@ -5975,7 +3854,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>151</v>
       </c>
@@ -5989,7 +3868,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -6003,7 +3882,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -6017,7 +3896,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>174</v>
       </c>
@@ -6031,12 +3910,12 @@
         <v>529</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D47" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -6050,7 +3929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>14</v>
       </c>
@@ -6058,7 +3937,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>450</v>
       </c>
@@ -6066,7 +3945,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>15</v>
       </c>
@@ -6074,13 +3953,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="6"/>
       <c r="B53" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>126</v>
       </c>
@@ -6088,7 +3967,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>454</v>
       </c>
@@ -6096,7 +3975,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>169</v>
       </c>
@@ -6104,7 +3983,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>106</v>
       </c>
@@ -6112,7 +3991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>414</v>
       </c>
@@ -6120,7 +3999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>119</v>
       </c>
@@ -6128,7 +4007,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>16</v>
       </c>
@@ -6136,7 +4015,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>443</v>
       </c>
@@ -6144,7 +4023,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>175</v>
       </c>
@@ -6152,7 +4031,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>175</v>
       </c>
@@ -6160,7 +4039,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>175</v>
       </c>
@@ -6168,7 +4047,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>132</v>
       </c>
@@ -6176,7 +4055,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
         <v>31</v>
       </c>
@@ -6184,7 +4063,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
         <v>32</v>
       </c>
@@ -6192,7 +4071,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>105</v>
       </c>
@@ -6200,7 +4079,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>106</v>
       </c>
@@ -6208,7 +4087,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>112</v>
       </c>
@@ -6216,7 +4095,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
         <v>130</v>
       </c>
@@ -6224,7 +4103,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
         <v>140</v>
       </c>
@@ -6232,7 +4111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>153</v>
       </c>
@@ -6240,13 +4119,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="6"/>
       <c r="B79" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>117</v>
       </c>
@@ -6254,12 +4133,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
         <v>157</v>
       </c>
@@ -6267,7 +4146,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
         <v>189</v>
       </c>
@@ -6275,7 +4154,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>114</v>
       </c>
@@ -6283,7 +4162,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>115</v>
       </c>
@@ -6291,7 +4170,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>116</v>
       </c>
@@ -6299,7 +4178,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>156</v>
       </c>
@@ -6307,7 +4186,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>118</v>
       </c>
@@ -6315,7 +4194,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>123</v>
       </c>
@@ -6323,7 +4202,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
         <v>155</v>
       </c>
@@ -6331,7 +4210,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
         <v>178</v>
       </c>
@@ -6339,7 +4218,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
         <v>179</v>
       </c>
@@ -6347,7 +4226,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
         <v>180</v>
       </c>
@@ -6355,7 +4234,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>124</v>
       </c>
@@ -6363,7 +4242,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>172</v>
       </c>
@@ -6371,7 +4250,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>173</v>
       </c>
@@ -6379,7 +4258,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="6" t="s">
         <v>174</v>
       </c>
@@ -6387,7 +4266,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="6" t="s">
         <v>185</v>
       </c>
@@ -6395,7 +4274,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="6" t="s">
         <v>186</v>
       </c>
@@ -6403,7 +4282,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="6" t="s">
         <v>187</v>
       </c>
@@ -6411,7 +4290,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="6" t="s">
         <v>188</v>
       </c>
@@ -6419,7 +4298,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>113</v>
       </c>
@@ -6427,7 +4306,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>190</v>
       </c>
@@ -6435,7 +4314,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>191</v>
       </c>
@@ -6443,7 +4322,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="6" t="s">
         <v>192</v>
       </c>
@@ -6451,7 +4330,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="6" t="s">
         <v>193</v>
       </c>
@@ -6459,7 +4338,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="6" t="s">
         <v>194</v>
       </c>
@@ -6467,7 +4346,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="6" t="s">
         <v>195</v>
       </c>
@@ -6475,7 +4354,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="6" t="s">
         <v>145</v>
       </c>
@@ -6483,7 +4362,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="6" t="s">
         <v>146</v>
       </c>
@@ -6491,7 +4370,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>147</v>
       </c>
@@ -6499,7 +4378,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>154</v>
       </c>
@@ -6507,17 +4386,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="6" t="s">
         <v>166</v>
       </c>
@@ -6525,7 +4404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="6" t="s">
         <v>167</v>
       </c>
@@ -6533,19 +4412,19 @@
         <v>168</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="6"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="6"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="6"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="6"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="6" t="s">
         <v>181</v>
       </c>
@@ -6553,7 +4432,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="6" t="s">
         <v>182</v>
       </c>
@@ -6561,7 +4440,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="6" t="s">
         <v>183</v>
       </c>
@@ -6569,7 +4448,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="6" t="s">
         <v>184</v>
       </c>
@@ -6577,17 +4456,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>128</v>
       </c>
@@ -6644,7 +4523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFF5CF3-7111-4487-862F-A50707F309E6}">
   <dimension ref="A1:C132"/>
   <sheetViews>
@@ -6652,16 +4531,16 @@
       <selection activeCell="B2" sqref="B2:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -6669,7 +4548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>475</v>
       </c>
@@ -6677,7 +4556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>487</v>
       </c>
@@ -6685,7 +4564,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>477</v>
       </c>
@@ -6694,7 +4573,7 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>478</v>
       </c>
@@ -6702,7 +4581,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>479</v>
       </c>
@@ -6710,7 +4589,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>480</v>
       </c>
@@ -6718,7 +4597,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -6726,7 +4605,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>481</v>
       </c>
@@ -6734,7 +4613,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>454</v>
       </c>
@@ -6742,7 +4621,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>482</v>
       </c>
@@ -6750,7 +4629,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>483</v>
       </c>
@@ -6758,7 +4637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>181</v>
       </c>
@@ -6766,7 +4645,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>484</v>
       </c>
@@ -6774,7 +4653,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>485</v>
       </c>
@@ -6782,7 +4661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>486</v>
       </c>
@@ -6790,7 +4669,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>530</v>
       </c>
@@ -6798,7 +4677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>531</v>
       </c>
@@ -6806,7 +4685,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>173</v>
       </c>
@@ -6814,7 +4693,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>151</v>
       </c>
@@ -6822,7 +4701,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>129</v>
       </c>
@@ -6830,7 +4709,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>130</v>
       </c>
@@ -6838,7 +4717,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
@@ -6846,7 +4725,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>492</v>
       </c>
@@ -6854,7 +4733,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>474</v>
       </c>
@@ -6862,7 +4741,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>488</v>
       </c>
@@ -6870,7 +4749,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>489</v>
       </c>
@@ -6878,7 +4757,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>490</v>
       </c>
@@ -6886,7 +4765,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>491</v>
       </c>
@@ -6894,7 +4773,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>493</v>
       </c>
@@ -6902,7 +4781,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>494</v>
       </c>
@@ -6910,7 +4789,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>495</v>
       </c>
@@ -6918,7 +4797,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>496</v>
       </c>
@@ -6926,7 +4805,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>497</v>
       </c>
@@ -6934,7 +4813,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>498</v>
       </c>
@@ -6942,7 +4821,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>499</v>
       </c>
@@ -6950,7 +4829,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>500</v>
       </c>
@@ -6958,7 +4837,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>501</v>
       </c>
@@ -6966,7 +4845,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>502</v>
       </c>
@@ -6974,7 +4853,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>503</v>
       </c>
@@ -6982,60 +4861,60 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="6"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>532</v>
       </c>
@@ -7043,7 +4922,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>533</v>
       </c>
@@ -7051,7 +4930,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>534</v>
       </c>
@@ -7059,7 +4938,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>535</v>
       </c>
@@ -7067,7 +4946,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>536</v>
       </c>
@@ -7075,7 +4954,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
         <v>537</v>
       </c>
@@ -7083,22 +4962,22 @@
         <v>543</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C74" s="6"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="6"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="6"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="6"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="6"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>170</v>
       </c>
@@ -7110,4 +4989,2214 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6B3CDC-0AFC-4B53-A9D5-8ABE836A7404}">
+  <dimension ref="A1:N91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.54296875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.81640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="7"/>
+      <c r="B2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="D2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="H2" t="s">
+        <v>341</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="J2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="L2" t="s">
+        <v>341</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="N2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3"/>
+      <c r="C3" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="D3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="H3" t="s">
+        <v>341</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" t="s">
+        <v>341</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="L3" t="s">
+        <v>341</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="N3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4"/>
+      <c r="C4" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F4" t="s">
+        <v>341</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H4" t="s">
+        <v>341</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" t="s">
+        <v>341</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="L4" t="s">
+        <v>341</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="N4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="B5"/>
+      <c r="C5" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="H5" t="s">
+        <v>341</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5"/>
+      <c r="K5" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="L5" t="s">
+        <v>341</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="N5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6"/>
+      <c r="C6" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="D6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H6" t="s">
+        <v>341</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6"/>
+      <c r="K6" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="L6" t="s">
+        <v>341</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="N6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7"/>
+      <c r="C7" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="D7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="H7" t="s">
+        <v>341</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7"/>
+      <c r="K7" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="L7" t="s">
+        <v>341</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="N7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8"/>
+      <c r="C8" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="D8" t="s">
+        <v>341</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H8" t="s">
+        <v>341</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8"/>
+      <c r="K8" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="L8" t="s">
+        <v>341</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="N8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9"/>
+      <c r="C9" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D9" t="s">
+        <v>341</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9" s="7"/>
+      <c r="K9" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="L9" t="s">
+        <v>341</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="N9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+      <c r="B10"/>
+      <c r="C10" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="D10" t="s">
+        <v>341</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10" s="7"/>
+      <c r="K10" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="L10" t="s">
+        <v>341</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="N10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="B11"/>
+      <c r="C11" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D11" t="s">
+        <v>341</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H11"/>
+      <c r="K11" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="N11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12"/>
+      <c r="C12" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D12" t="s">
+        <v>341</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H12"/>
+      <c r="K12" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="N12" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13"/>
+      <c r="C13" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="H13"/>
+      <c r="K13" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="N13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
+      <c r="B14"/>
+      <c r="C14" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H14"/>
+      <c r="K14" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="N14" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15"/>
+      <c r="C15" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F15"/>
+      <c r="G15" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H15"/>
+      <c r="K15" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="N15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16"/>
+      <c r="C16" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F16"/>
+      <c r="G16" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="H16"/>
+      <c r="K16" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="N16" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="7"/>
+      <c r="B17"/>
+      <c r="C17" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="H17"/>
+      <c r="K17" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="7"/>
+      <c r="B18"/>
+      <c r="C18" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H18"/>
+      <c r="K18" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="7"/>
+      <c r="B19"/>
+      <c r="C19" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="H19"/>
+      <c r="K19" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="7"/>
+      <c r="B20"/>
+      <c r="D20"/>
+      <c r="E20" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H20"/>
+      <c r="K20" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="7"/>
+      <c r="B21"/>
+      <c r="D21"/>
+      <c r="E21" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F21"/>
+      <c r="H21"/>
+      <c r="M21" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="7"/>
+      <c r="B22"/>
+      <c r="D22"/>
+      <c r="E22" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F22"/>
+      <c r="H22"/>
+      <c r="M22" s="7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="7"/>
+      <c r="B23"/>
+      <c r="D23"/>
+      <c r="E23" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F23"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="7"/>
+      <c r="B24"/>
+      <c r="D24"/>
+      <c r="E24" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F24"/>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="7"/>
+      <c r="B25"/>
+      <c r="D25"/>
+      <c r="E25" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F25"/>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="7"/>
+      <c r="B26"/>
+      <c r="D26"/>
+      <c r="E26" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26" s="7"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
+      <c r="B27"/>
+      <c r="D27"/>
+      <c r="E27" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F27"/>
+      <c r="G27" s="7"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="7"/>
+      <c r="B28"/>
+      <c r="D28"/>
+      <c r="E28" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28" s="7"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="7"/>
+      <c r="B29"/>
+      <c r="D29"/>
+      <c r="E29" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29" s="7"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="7"/>
+      <c r="B30"/>
+      <c r="D30"/>
+      <c r="E30" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30" s="7"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="7"/>
+      <c r="B31"/>
+      <c r="D31"/>
+      <c r="E31" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F31"/>
+      <c r="G31" s="7"/>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="7"/>
+      <c r="B32"/>
+      <c r="D32"/>
+      <c r="F32"/>
+      <c r="G32" s="7"/>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="7"/>
+      <c r="B33"/>
+      <c r="D33"/>
+      <c r="F33"/>
+      <c r="G33" s="7"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="7"/>
+      <c r="B34"/>
+      <c r="D34"/>
+      <c r="F34"/>
+      <c r="G34" s="7"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="7"/>
+      <c r="B35"/>
+      <c r="D35"/>
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="7"/>
+      <c r="B36"/>
+      <c r="D36"/>
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="7"/>
+      <c r="B37"/>
+      <c r="D37"/>
+      <c r="F37"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="7"/>
+      <c r="B38"/>
+      <c r="D38"/>
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="7"/>
+      <c r="B39"/>
+      <c r="D39"/>
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="7"/>
+      <c r="B40"/>
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="7"/>
+      <c r="B41"/>
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B42"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B43"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B44"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B45"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B46"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B47"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B48"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B49"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B50"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B51"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E52" s="7"/>
+      <c r="F52"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C53" s="7"/>
+      <c r="D53"/>
+      <c r="E53" s="7"/>
+      <c r="F53"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C54" s="7"/>
+      <c r="D54"/>
+      <c r="E54" s="7"/>
+      <c r="F54"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C55" s="7"/>
+      <c r="D55"/>
+      <c r="E55" s="7"/>
+      <c r="F55"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C56" s="7"/>
+      <c r="D56"/>
+      <c r="E56" s="7"/>
+      <c r="F56"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C57" s="7"/>
+      <c r="D57"/>
+      <c r="E57" s="7"/>
+      <c r="F57"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C58" s="7"/>
+      <c r="D58"/>
+      <c r="E58" s="7"/>
+      <c r="F58"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C59" s="7"/>
+      <c r="D59"/>
+      <c r="E59" s="7"/>
+      <c r="F59"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60"/>
+      <c r="E60" s="7"/>
+      <c r="F60"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61"/>
+      <c r="E61" s="7"/>
+      <c r="F61"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62"/>
+      <c r="E62" s="7"/>
+      <c r="F62"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63"/>
+      <c r="E63" s="7"/>
+      <c r="F63"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64"/>
+      <c r="E64" s="7"/>
+      <c r="F64"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65"/>
+      <c r="E65" s="7"/>
+      <c r="F65"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66"/>
+      <c r="E66" s="7"/>
+      <c r="F66"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67"/>
+      <c r="E67" s="7"/>
+      <c r="F67"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68"/>
+      <c r="E68" s="7"/>
+      <c r="F68"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69"/>
+      <c r="E69" s="7"/>
+      <c r="F69"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70"/>
+      <c r="E70" s="7"/>
+      <c r="F70"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E71" s="7"/>
+      <c r="F71"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F72"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F73"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F74"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C75" s="7"/>
+      <c r="F75"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F76"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F77"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F78"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F79"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F80"/>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F81"/>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F82"/>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F83"/>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F84"/>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F85"/>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F86"/>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F87"/>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F88"/>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F89"/>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F90"/>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F91"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDD6BF5-C159-4766-92DA-0E15E04E773E}">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.81640625" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>462</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>513</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>450</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>514</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="5"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{2F057C07-CF5C-4513-BCE7-FB83ABD01A12}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{0D19E48E-6F38-4893-A822-2BA3920D94AD}"/>
+    <hyperlink ref="B14" r:id="rId3" xr:uid="{108F8518-511C-4C88-86EE-D91E1722DF82}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{80EB9753-C97B-4084-8122-0BFEACD7FD38}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{24E432C0-9FFE-419D-A490-4B38B31A015C}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{A54FF614-4C1A-4DDE-84AF-31A7062DB4F8}"/>
+    <hyperlink ref="B3" r:id="rId7" xr:uid="{2755C432-4DDA-44FE-AFE5-3148303F001D}"/>
+    <hyperlink ref="B2" r:id="rId8" xr:uid="{5766B7EA-84EF-4601-8E83-17FDFC1ACE15}"/>
+    <hyperlink ref="B7" r:id="rId9" xr:uid="{092C6560-7E94-4E60-A6A7-B679999EFB8A}"/>
+    <hyperlink ref="B5" r:id="rId10" xr:uid="{D2F8AA36-080E-4FC2-A827-5B503E2E5519}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{F6023B5A-9E26-4F18-B85F-633C57F0092F}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{45D830EC-EEA8-43E0-A952-067DCF4D366E}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{FFC4D18B-F947-4C00-ADC7-D8F2DD58F160}"/>
+    <hyperlink ref="B11" r:id="rId14" xr:uid="{C442A289-A23C-45C1-8F6E-7C3DFF25846D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A702005-EDFB-45BE-A884-6A9A5FF3F0F1}">
+  <dimension ref="A1:B132"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.36328125" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="6"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="6"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="6"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="6"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="6"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="6"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="6"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="6"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="6"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="6"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="6"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="6"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="6"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="6"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="6"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="6"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="6"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="6"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="6"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="6"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="6"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="6"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="6"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="6"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="6"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="6"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="6"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="6"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="6"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="6"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="6"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="6"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="6"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="6"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="6"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="6"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="6"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" s="6"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50DB6969-FCD4-4AC0-8731-C3FC2B56364B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9A6D5F-4ADD-40C7-BC29-FB462C3271E9}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.08984375" customWidth="1"/>
+    <col min="2" max="2" width="39.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{3C80A37F-1BB2-4ED7-9BFE-1B1BF601C38C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E9CAEF-20FE-486B-8700-9F7734702923}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD599698-DBBA-4A68-9359-509216B4F0DF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD53744-91AA-45F2-BD5B-D22DA6D78137}">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.81640625" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>462</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>513</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>450</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>514</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="5"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{F15E7C03-31F5-4E7E-A732-AE27AD8D8035}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{C107ED62-FCA6-40E9-A4D8-7ACE6E998015}"/>
+    <hyperlink ref="B14" r:id="rId3" xr:uid="{EDE8390A-2112-48DF-91AA-AC4C363B3272}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{0C865CB3-8E13-42E0-9596-156DCBD22BB6}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{B55188D8-78E5-4E62-91E8-642B099F7E53}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{6CB850C9-7EB2-41C0-BC80-26241F756E41}"/>
+    <hyperlink ref="B3" r:id="rId7" xr:uid="{524850AD-3CA8-478D-AC04-01BD30C30A87}"/>
+    <hyperlink ref="B2" r:id="rId8" xr:uid="{662460A1-632E-484B-9D7E-0D2DDDC2B9AA}"/>
+    <hyperlink ref="B7" r:id="rId9" xr:uid="{F66C5754-F8C1-49AB-A63A-210F88D63840}"/>
+    <hyperlink ref="B5" r:id="rId10" xr:uid="{ED402730-F53F-4F93-B5D8-38268D24387B}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{9057E948-0C87-48C8-8B0B-FA4A85FAF335}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{03A2E950-6732-44C2-9B7D-C4324D17A868}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{80E20A1F-3D50-4BE4-BF9A-E944D8EF33A6}"/>
+    <hyperlink ref="B11" r:id="rId14" xr:uid="{919C9DD3-448D-4D57-BEC7-F5151B9C78AF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59C213A-05F4-4841-BAEC-85842C4D1CD7}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3BCABF-0B84-4F1D-A86D-03D73AE2839E}">
+  <dimension ref="A1:D77"/>
+  <sheetViews>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="11">
+        <v>45480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" t="s">
+        <v>459</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" t="s">
+        <v>459</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>459</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C26" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>545</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B77" r:id="rId1" xr:uid="{81A8FC46-952C-4568-BB3C-CA4F66235EDB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/test-data/qa7/testData.xlsx
+++ b/src/test/resources/test-data/qa7/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sravanthi.Thammera\Downloads\Vignesh_Automation\src\test\resources\test-data\qa7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52638D1-45E1-4877-A8FC-5DB164938FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4B9036-8392-406E-A9B2-7641B8DD3BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1695,13 +1695,13 @@
     <t>EASRegistration</t>
   </si>
   <si>
+    <t>45</t>
+  </si>
+  <si>
     <t>plan</t>
   </si>
   <si>
-    <t>emaildata</t>
-  </si>
-  <si>
-    <t>45</t>
+    <t>email</t>
   </si>
 </sst>
 </file>
@@ -6547,26 +6547,25 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" customWidth="1"/>
     <col min="2" max="2" width="39.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>549</v>
+      <c r="A2" s="6" t="s">
+        <v>548</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>546</v>

--- a/src/test/resources/test-data/qa7/testData.xlsx
+++ b/src/test/resources/test-data/qa7/testData.xlsx
@@ -1,32 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sravanthi.Thammera\Downloads\Vignesh_Automation\src\test\resources\test-data\qa7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vigneshwaran.sesurag\Gradle\CPP_Automation-Chatr\src\test\resources\test-data\qa7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4B9036-8392-406E-A9B2-7641B8DD3BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000A5E55-DD4F-4251-A043-D568C0F4CBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Voucher" sheetId="2" r:id="rId1"/>
     <sheet name="NACActivation" sheetId="3" r:id="rId2"/>
-    <sheet name="NAC_Data" sheetId="12" r:id="rId3"/>
-    <sheet name="NACdatainput" sheetId="13" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="14" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="15" r:id="rId6"/>
-    <sheet name="EAS" sheetId="4" r:id="rId7"/>
-    <sheet name="CTNDATA" sheetId="5" r:id="rId8"/>
-    <sheet name="NACData" sheetId="7" r:id="rId9"/>
-    <sheet name="Sheet3" sheetId="8" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId11"/>
-    <sheet name="NAC OLD" sheetId="9" r:id="rId12"/>
-    <sheet name="Voucher OLD" sheetId="10" r:id="rId13"/>
-    <sheet name="EAS OLD" sheetId="11" r:id="rId14"/>
+    <sheet name="NAC_Data" sheetId="13" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="14" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="15" r:id="rId5"/>
+    <sheet name="EAS" sheetId="4" r:id="rId6"/>
+    <sheet name="CTNDATA" sheetId="5" r:id="rId7"/>
+    <sheet name="NACData" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId10"/>
+    <sheet name="NAC OLD" sheetId="9" r:id="rId11"/>
+    <sheet name="Voucher OLD" sheetId="10" r:id="rId12"/>
+    <sheet name="EAS OLD" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="574">
   <si>
     <t>Voucher25</t>
   </si>
@@ -1683,9 +1682,6 @@
     <t>eas6</t>
   </si>
   <si>
-    <t>4169041183</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -1698,10 +1694,82 @@
     <t>45</t>
   </si>
   <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>email</t>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>E-Mail</t>
+  </si>
+  <si>
+    <t>First_Name</t>
+  </si>
+  <si>
+    <t>Last_Name</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>Province Full_Name</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>City_Address</t>
+  </si>
+  <si>
+    <t>01/01/2000</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>4 Ambler Bay</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>PlanTab</t>
+  </si>
+  <si>
+    <t>4G Nation-Wide Talk, Text &amp; Data</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>4163191133</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>test12345@gmail.com</t>
+  </si>
+  <si>
+    <t>Chatr@123</t>
   </si>
 </sst>
 </file>
@@ -1711,7 +1779,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000000000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1755,6 +1823,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1803,7 +1876,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1826,7 +1899,11 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2110,32 +2187,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DE75AE-6168-4912-878C-25C4226CBA80}">
-  <dimension ref="A1:N91"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.54296875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.81640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="12.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15.75">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2179,650 +2256,342 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2" s="7"/>
-      <c r="B2"/>
       <c r="C2" s="7"/>
-      <c r="D2"/>
       <c r="E2" s="7"/>
-      <c r="F2"/>
       <c r="G2" s="7"/>
-      <c r="H2"/>
       <c r="I2" s="10"/>
-      <c r="J2"/>
       <c r="K2" s="10"/>
-      <c r="L2"/>
       <c r="M2" s="7"/>
-      <c r="N2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="7"/>
-      <c r="B3"/>
       <c r="C3" s="7"/>
-      <c r="D3"/>
       <c r="E3" s="7"/>
-      <c r="F3"/>
       <c r="G3" s="7"/>
-      <c r="H3"/>
       <c r="I3" s="7"/>
-      <c r="J3"/>
       <c r="K3" s="10"/>
-      <c r="L3"/>
       <c r="M3" s="7"/>
-      <c r="N3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="7"/>
-      <c r="B4"/>
       <c r="C4" s="7"/>
-      <c r="D4"/>
       <c r="E4" s="7"/>
-      <c r="F4"/>
       <c r="G4" s="7"/>
-      <c r="H4"/>
       <c r="I4" s="7"/>
-      <c r="J4"/>
       <c r="K4" s="10"/>
-      <c r="L4"/>
       <c r="M4" s="7"/>
-      <c r="N4"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="7"/>
-      <c r="B5"/>
       <c r="C5" s="7"/>
-      <c r="D5"/>
       <c r="E5" s="7"/>
-      <c r="F5"/>
       <c r="G5" s="7"/>
-      <c r="H5"/>
       <c r="I5" s="7"/>
-      <c r="J5"/>
       <c r="K5" s="10"/>
-      <c r="L5"/>
       <c r="M5" s="7"/>
-      <c r="N5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="7"/>
-      <c r="B6"/>
       <c r="C6" s="7"/>
-      <c r="D6"/>
       <c r="E6" s="7"/>
-      <c r="F6"/>
       <c r="G6" s="7"/>
-      <c r="H6"/>
       <c r="I6" s="7"/>
-      <c r="J6"/>
       <c r="K6" s="10"/>
-      <c r="L6"/>
       <c r="M6" s="7"/>
-      <c r="N6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="7"/>
-      <c r="B7"/>
       <c r="C7" s="7"/>
-      <c r="D7"/>
       <c r="E7" s="7"/>
-      <c r="F7"/>
       <c r="G7" s="7"/>
-      <c r="H7"/>
       <c r="I7" s="7"/>
-      <c r="J7"/>
       <c r="K7" s="10"/>
-      <c r="L7"/>
       <c r="M7" s="7"/>
-      <c r="N7"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="7"/>
-      <c r="B8"/>
       <c r="C8" s="7"/>
-      <c r="D8"/>
       <c r="E8" s="7"/>
-      <c r="F8"/>
       <c r="G8" s="7"/>
-      <c r="H8"/>
       <c r="I8" s="7"/>
-      <c r="J8"/>
       <c r="K8" s="10"/>
-      <c r="L8"/>
       <c r="M8" s="7"/>
-      <c r="N8"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="7"/>
-      <c r="B9"/>
       <c r="C9" s="7"/>
-      <c r="D9"/>
       <c r="E9" s="7"/>
-      <c r="F9"/>
       <c r="G9" s="7"/>
-      <c r="H9"/>
       <c r="I9" s="7"/>
       <c r="K9" s="10"/>
-      <c r="L9"/>
       <c r="M9" s="7"/>
-      <c r="N9"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="7"/>
-      <c r="B10"/>
       <c r="C10" s="7"/>
-      <c r="D10"/>
       <c r="E10" s="7"/>
-      <c r="F10"/>
       <c r="G10" s="7"/>
-      <c r="H10"/>
       <c r="I10" s="7"/>
       <c r="K10" s="10"/>
-      <c r="L10"/>
       <c r="M10" s="7"/>
-      <c r="N10"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="7"/>
-      <c r="B11"/>
       <c r="C11" s="7"/>
-      <c r="D11"/>
       <c r="E11" s="7"/>
-      <c r="F11"/>
       <c r="G11" s="7"/>
-      <c r="H11"/>
       <c r="K11" s="10"/>
       <c r="M11" s="7"/>
-      <c r="N11"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="7"/>
-      <c r="B12"/>
       <c r="C12" s="7"/>
-      <c r="D12"/>
       <c r="E12" s="7"/>
-      <c r="F12"/>
       <c r="G12" s="7"/>
-      <c r="H12"/>
       <c r="K12" s="10"/>
       <c r="M12" s="7"/>
-      <c r="N12"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="7"/>
-      <c r="B13"/>
       <c r="C13" s="7"/>
-      <c r="D13"/>
       <c r="E13" s="7"/>
-      <c r="F13"/>
       <c r="G13" s="7"/>
-      <c r="H13"/>
       <c r="K13" s="10"/>
       <c r="M13" s="7"/>
-      <c r="N13"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="7"/>
-      <c r="B14"/>
       <c r="C14" s="7"/>
-      <c r="D14"/>
       <c r="E14" s="7"/>
-      <c r="F14"/>
       <c r="G14" s="7"/>
-      <c r="H14"/>
       <c r="K14" s="10"/>
       <c r="M14" s="7"/>
-      <c r="N14"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="7"/>
-      <c r="B15"/>
       <c r="C15" s="7"/>
-      <c r="D15"/>
       <c r="E15" s="7"/>
-      <c r="F15"/>
       <c r="G15" s="7"/>
-      <c r="H15"/>
       <c r="K15" s="10"/>
       <c r="M15" s="7"/>
-      <c r="N15"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="7"/>
-      <c r="B16"/>
       <c r="C16" s="7"/>
-      <c r="D16"/>
       <c r="E16" s="7"/>
-      <c r="F16"/>
       <c r="G16" s="7"/>
-      <c r="H16"/>
       <c r="K16" s="10"/>
       <c r="M16" s="7"/>
-      <c r="N16"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="7"/>
-      <c r="B17"/>
       <c r="C17" s="7"/>
-      <c r="D17"/>
       <c r="E17" s="7"/>
-      <c r="F17"/>
       <c r="G17" s="7"/>
-      <c r="H17"/>
       <c r="K17" s="10"/>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13">
       <c r="A18" s="7"/>
-      <c r="B18"/>
       <c r="C18" s="7"/>
-      <c r="D18"/>
       <c r="E18" s="7"/>
-      <c r="F18"/>
       <c r="G18" s="7"/>
-      <c r="H18"/>
       <c r="K18" s="10"/>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13">
       <c r="A19" s="7"/>
-      <c r="B19"/>
       <c r="C19" s="7"/>
-      <c r="D19"/>
       <c r="E19" s="7"/>
-      <c r="F19"/>
       <c r="G19" s="7"/>
-      <c r="H19"/>
       <c r="K19" s="10"/>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13">
       <c r="A20" s="7"/>
-      <c r="B20"/>
-      <c r="D20"/>
       <c r="E20" s="7"/>
-      <c r="F20"/>
       <c r="G20" s="7"/>
-      <c r="H20"/>
       <c r="K20" s="10"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13">
       <c r="A21" s="7"/>
-      <c r="B21"/>
-      <c r="D21"/>
       <c r="E21" s="7"/>
-      <c r="F21"/>
-      <c r="H21"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13">
       <c r="A22" s="7"/>
-      <c r="B22"/>
-      <c r="D22"/>
       <c r="E22" s="7"/>
-      <c r="F22"/>
-      <c r="H22"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13">
       <c r="A23" s="7"/>
-      <c r="B23"/>
-      <c r="D23"/>
       <c r="E23" s="7"/>
-      <c r="F23"/>
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="7"/>
-      <c r="B24"/>
-      <c r="D24"/>
       <c r="E24" s="7"/>
-      <c r="F24"/>
-      <c r="H24"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="7"/>
-      <c r="B25"/>
-      <c r="D25"/>
       <c r="E25" s="7"/>
-      <c r="F25"/>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="7"/>
-      <c r="B26"/>
-      <c r="D26"/>
       <c r="E26" s="7"/>
-      <c r="F26"/>
       <c r="G26" s="7"/>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="7"/>
-      <c r="B27"/>
-      <c r="D27"/>
       <c r="E27" s="7"/>
-      <c r="F27"/>
       <c r="G27" s="7"/>
-      <c r="H27"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="7"/>
-      <c r="B28"/>
-      <c r="D28"/>
       <c r="E28" s="7"/>
-      <c r="F28"/>
       <c r="G28" s="7"/>
-      <c r="H28"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="7"/>
-      <c r="B29"/>
-      <c r="D29"/>
       <c r="E29" s="7"/>
-      <c r="F29"/>
       <c r="G29" s="7"/>
-      <c r="H29"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="7"/>
-      <c r="B30"/>
-      <c r="D30"/>
       <c r="E30" s="7"/>
-      <c r="F30"/>
       <c r="G30" s="7"/>
-      <c r="H30"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="7"/>
-      <c r="B31"/>
-      <c r="D31"/>
       <c r="E31" s="7"/>
-      <c r="F31"/>
       <c r="G31" s="7"/>
-      <c r="H31"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="7"/>
-      <c r="B32"/>
-      <c r="D32"/>
-      <c r="F32"/>
       <c r="G32" s="7"/>
-      <c r="H32"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="7"/>
-      <c r="B33"/>
-      <c r="D33"/>
-      <c r="F33"/>
       <c r="G33" s="7"/>
-      <c r="H33"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="7"/>
-      <c r="B34"/>
-      <c r="D34"/>
-      <c r="F34"/>
       <c r="G34" s="7"/>
-      <c r="H34"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="7"/>
-      <c r="B35"/>
-      <c r="D35"/>
-      <c r="F35"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="7"/>
-      <c r="B36"/>
-      <c r="D36"/>
-      <c r="F36"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="7"/>
-      <c r="B37"/>
-      <c r="D37"/>
-      <c r="F37"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="7"/>
-      <c r="B38"/>
-      <c r="D38"/>
-      <c r="F38"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="7"/>
-      <c r="B39"/>
-      <c r="D39"/>
-      <c r="F39"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="7"/>
-      <c r="B40"/>
-      <c r="D40"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="7"/>
-      <c r="B41"/>
-      <c r="D41"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B42"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B43"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B44"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B45"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B46"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B47"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B48"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B49"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B50"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B51"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:5">
       <c r="E52" s="7"/>
-      <c r="F52"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:5">
       <c r="C53" s="7"/>
-      <c r="D53"/>
       <c r="E53" s="7"/>
-      <c r="F53"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:5">
       <c r="C54" s="7"/>
-      <c r="D54"/>
       <c r="E54" s="7"/>
-      <c r="F54"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:5">
       <c r="C55" s="7"/>
-      <c r="D55"/>
       <c r="E55" s="7"/>
-      <c r="F55"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:5">
       <c r="C56" s="7"/>
-      <c r="D56"/>
       <c r="E56" s="7"/>
-      <c r="F56"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:5">
       <c r="C57" s="7"/>
-      <c r="D57"/>
       <c r="E57" s="7"/>
-      <c r="F57"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:5">
       <c r="C58" s="7"/>
-      <c r="D58"/>
       <c r="E58" s="7"/>
-      <c r="F58"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:5">
       <c r="C59" s="7"/>
-      <c r="D59"/>
       <c r="E59" s="7"/>
-      <c r="F59"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="7"/>
       <c r="C60" s="7"/>
-      <c r="D60"/>
       <c r="E60" s="7"/>
-      <c r="F60"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="7"/>
       <c r="C61" s="7"/>
-      <c r="D61"/>
       <c r="E61" s="7"/>
-      <c r="F61"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="7"/>
       <c r="C62" s="7"/>
-      <c r="D62"/>
       <c r="E62" s="7"/>
-      <c r="F62"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="7"/>
       <c r="C63" s="7"/>
-      <c r="D63"/>
       <c r="E63" s="7"/>
-      <c r="F63"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="7"/>
       <c r="C64" s="7"/>
-      <c r="D64"/>
       <c r="E64" s="7"/>
-      <c r="F64"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="7"/>
       <c r="C65" s="7"/>
-      <c r="D65"/>
       <c r="E65" s="7"/>
-      <c r="F65"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="7"/>
       <c r="C66" s="7"/>
-      <c r="D66"/>
       <c r="E66" s="7"/>
-      <c r="F66"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="7"/>
       <c r="C67" s="7"/>
-      <c r="D67"/>
       <c r="E67" s="7"/>
-      <c r="F67"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="7"/>
       <c r="C68" s="7"/>
-      <c r="D68"/>
       <c r="E68" s="7"/>
-      <c r="F68"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="7"/>
       <c r="C69" s="7"/>
-      <c r="D69"/>
       <c r="E69" s="7"/>
-      <c r="F69"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="7"/>
       <c r="C70" s="7"/>
-      <c r="D70"/>
       <c r="E70" s="7"/>
-      <c r="F70"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:5">
       <c r="E71" s="7"/>
-      <c r="F71"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F72"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F73"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F74"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:5">
       <c r="C75" s="7"/>
-      <c r="F75"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F76"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F77"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F78"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F79"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F80"/>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F81"/>
-    </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F82"/>
-    </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F83"/>
-    </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F84"/>
-    </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F85"/>
-    </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F86"/>
-    </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F87"/>
-    </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F88"/>
-    </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F89"/>
-    </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F90"/>
-    </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F91"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2831,509 +2600,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FB94A1-E8D6-4BE6-B882-526070DB15E4}">
-  <dimension ref="A1:C51"/>
-  <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <v>30</v>
-      </c>
-      <c r="B1">
-        <v>40</v>
-      </c>
-      <c r="C1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182267D9-48FB-4237-A38C-E4622CDC8171}">
   <dimension ref="A1:D127"/>
   <sheetViews>
@@ -3341,15 +2607,15 @@
       <selection activeCell="A36" sqref="A36:C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" customWidth="1"/>
-    <col min="2" max="2" width="39.1796875" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" customWidth="1"/>
-    <col min="4" max="4" width="23.1796875" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -3360,7 +2626,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>4168171261</v>
       </c>
@@ -3371,7 +2637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -3382,7 +2648,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -3393,7 +2659,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -3404,7 +2670,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -3415,7 +2681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
         <v>37</v>
       </c>
@@ -3426,7 +2692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -3437,7 +2703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -3448,7 +2714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -3459,7 +2725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -3470,7 +2736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -3481,7 +2747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -3492,7 +2758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -3503,7 +2769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -3514,7 +2780,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -3528,7 +2794,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -3542,7 +2808,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -3556,7 +2822,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -3570,7 +2836,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -3584,7 +2850,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>122</v>
       </c>
@@ -3598,7 +2864,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>108</v>
       </c>
@@ -3612,7 +2878,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>125</v>
       </c>
@@ -3626,7 +2892,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>111</v>
       </c>
@@ -3640,7 +2906,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -3651,7 +2917,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>445</v>
       </c>
@@ -3665,12 +2931,12 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4">
       <c r="B28" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4">
       <c r="A29" s="6" t="s">
         <v>193</v>
       </c>
@@ -3684,7 +2950,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>448</v>
       </c>
@@ -3698,7 +2964,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>109</v>
       </c>
@@ -3712,7 +2978,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>110</v>
       </c>
@@ -3726,7 +2992,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>181</v>
       </c>
@@ -3740,7 +3006,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>123</v>
       </c>
@@ -3754,7 +3020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4">
       <c r="B35" s="5" t="s">
         <v>138</v>
       </c>
@@ -3765,7 +3031,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>112</v>
       </c>
@@ -3779,12 +3045,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4">
       <c r="D37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -3798,7 +3064,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>108</v>
       </c>
@@ -3812,7 +3078,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>175</v>
       </c>
@@ -3826,7 +3092,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>175</v>
       </c>
@@ -3840,7 +3106,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>108</v>
       </c>
@@ -3854,7 +3120,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>151</v>
       </c>
@@ -3868,7 +3134,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -3882,7 +3148,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -3896,7 +3162,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>174</v>
       </c>
@@ -3910,12 +3176,12 @@
         <v>529</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4">
       <c r="D47" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -3929,7 +3195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2">
       <c r="A50" s="6" t="s">
         <v>14</v>
       </c>
@@ -3937,7 +3203,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2">
       <c r="A51" s="6" t="s">
         <v>450</v>
       </c>
@@ -3945,7 +3211,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2">
       <c r="A52" s="6" t="s">
         <v>15</v>
       </c>
@@ -3953,13 +3219,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2">
       <c r="A53" s="6"/>
       <c r="B53" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2">
       <c r="A54" s="6" t="s">
         <v>126</v>
       </c>
@@ -3967,7 +3233,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2">
       <c r="A55" s="6" t="s">
         <v>454</v>
       </c>
@@ -3975,7 +3241,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2">
       <c r="A56" s="6" t="s">
         <v>169</v>
       </c>
@@ -3983,7 +3249,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>106</v>
       </c>
@@ -3991,7 +3257,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2">
       <c r="A58" s="6" t="s">
         <v>414</v>
       </c>
@@ -3999,7 +3265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>119</v>
       </c>
@@ -4007,7 +3273,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2">
       <c r="A60" s="6" t="s">
         <v>16</v>
       </c>
@@ -4015,7 +3281,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2">
       <c r="A61" s="6" t="s">
         <v>443</v>
       </c>
@@ -4023,7 +3289,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>175</v>
       </c>
@@ -4031,7 +3297,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>175</v>
       </c>
@@ -4039,7 +3305,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>175</v>
       </c>
@@ -4047,7 +3313,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2">
       <c r="A66" s="6" t="s">
         <v>132</v>
       </c>
@@ -4055,7 +3321,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2">
       <c r="A67" s="8" t="s">
         <v>31</v>
       </c>
@@ -4063,7 +3329,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2">
       <c r="A68" s="8" t="s">
         <v>32</v>
       </c>
@@ -4071,7 +3337,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>105</v>
       </c>
@@ -4079,7 +3345,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>106</v>
       </c>
@@ -4087,7 +3353,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>112</v>
       </c>
@@ -4095,7 +3361,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2">
       <c r="A76" s="6" t="s">
         <v>130</v>
       </c>
@@ -4103,7 +3369,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2">
       <c r="A77" s="6" t="s">
         <v>140</v>
       </c>
@@ -4111,7 +3377,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2">
       <c r="A78" s="6" t="s">
         <v>153</v>
       </c>
@@ -4119,13 +3385,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2">
       <c r="A79" s="6"/>
       <c r="B79" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>117</v>
       </c>
@@ -4133,12 +3399,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2">
       <c r="B81" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2">
       <c r="A82" s="6" t="s">
         <v>157</v>
       </c>
@@ -4146,7 +3412,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2">
       <c r="A83" s="6" t="s">
         <v>189</v>
       </c>
@@ -4154,7 +3420,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>114</v>
       </c>
@@ -4162,7 +3428,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>115</v>
       </c>
@@ -4170,7 +3436,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>116</v>
       </c>
@@ -4178,7 +3444,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2">
       <c r="A87" s="6" t="s">
         <v>156</v>
       </c>
@@ -4186,7 +3452,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>118</v>
       </c>
@@ -4194,7 +3460,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>123</v>
       </c>
@@ -4202,7 +3468,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2">
       <c r="A90" s="6" t="s">
         <v>155</v>
       </c>
@@ -4210,7 +3476,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2">
       <c r="A91" s="6" t="s">
         <v>178</v>
       </c>
@@ -4218,7 +3484,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2">
       <c r="A92" s="6" t="s">
         <v>179</v>
       </c>
@@ -4226,7 +3492,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2">
       <c r="A93" s="6" t="s">
         <v>180</v>
       </c>
@@ -4234,7 +3500,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>124</v>
       </c>
@@ -4242,7 +3508,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2">
       <c r="A95" s="6" t="s">
         <v>172</v>
       </c>
@@ -4250,7 +3516,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2">
       <c r="A96" s="6" t="s">
         <v>173</v>
       </c>
@@ -4258,7 +3524,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2">
       <c r="A97" s="6" t="s">
         <v>174</v>
       </c>
@@ -4266,7 +3532,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2">
       <c r="A98" s="6" t="s">
         <v>185</v>
       </c>
@@ -4274,7 +3540,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2">
       <c r="A99" s="6" t="s">
         <v>186</v>
       </c>
@@ -4282,7 +3548,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2">
       <c r="A100" s="6" t="s">
         <v>187</v>
       </c>
@@ -4290,7 +3556,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2">
       <c r="A101" s="6" t="s">
         <v>188</v>
       </c>
@@ -4298,7 +3564,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>113</v>
       </c>
@@ -4306,7 +3572,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2">
       <c r="A103" s="6" t="s">
         <v>190</v>
       </c>
@@ -4314,7 +3580,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2">
       <c r="A104" s="6" t="s">
         <v>191</v>
       </c>
@@ -4322,7 +3588,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2">
       <c r="A105" s="6" t="s">
         <v>192</v>
       </c>
@@ -4330,7 +3596,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2">
       <c r="A106" s="6" t="s">
         <v>193</v>
       </c>
@@ -4338,7 +3604,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2">
       <c r="A107" s="6" t="s">
         <v>194</v>
       </c>
@@ -4346,7 +3612,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2">
       <c r="A108" s="6" t="s">
         <v>195</v>
       </c>
@@ -4354,7 +3620,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2">
       <c r="A109" s="6" t="s">
         <v>145</v>
       </c>
@@ -4362,7 +3628,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2">
       <c r="A110" s="6" t="s">
         <v>146</v>
       </c>
@@ -4370,7 +3636,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2">
       <c r="A111" s="6" t="s">
         <v>147</v>
       </c>
@@ -4378,7 +3644,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2">
       <c r="A112" s="6" t="s">
         <v>154</v>
       </c>
@@ -4386,17 +3652,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2">
       <c r="A113" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2">
       <c r="A114" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2">
       <c r="A115" s="6" t="s">
         <v>166</v>
       </c>
@@ -4404,7 +3670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2">
       <c r="A116" s="6" t="s">
         <v>167</v>
       </c>
@@ -4412,19 +3678,19 @@
         <v>168</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2">
       <c r="A117" s="6"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2">
       <c r="A118" s="6"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2">
       <c r="A119" s="6"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2">
       <c r="A120" s="6"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2">
       <c r="A121" s="6" t="s">
         <v>181</v>
       </c>
@@ -4432,7 +3698,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2">
       <c r="A122" s="6" t="s">
         <v>182</v>
       </c>
@@ -4440,7 +3706,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2">
       <c r="A123" s="6" t="s">
         <v>183</v>
       </c>
@@ -4448,7 +3714,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2">
       <c r="A124" s="6" t="s">
         <v>184</v>
       </c>
@@ -4456,17 +3722,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2">
       <c r="A125" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2">
       <c r="A126" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2">
       <c r="A127" s="6" t="s">
         <v>128</v>
       </c>
@@ -4523,7 +3789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFF5CF3-7111-4487-862F-A50707F309E6}">
   <dimension ref="A1:C132"/>
   <sheetViews>
@@ -4531,16 +3797,16 @@
       <selection activeCell="B2" sqref="B2:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4548,7 +3814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
         <v>475</v>
       </c>
@@ -4556,7 +3822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
         <v>487</v>
       </c>
@@ -4564,7 +3830,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>477</v>
       </c>
@@ -4573,7 +3839,7 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
         <v>478</v>
       </c>
@@ -4581,7 +3847,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
         <v>479</v>
       </c>
@@ -4589,7 +3855,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
         <v>480</v>
       </c>
@@ -4597,7 +3863,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -4605,7 +3871,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
         <v>481</v>
       </c>
@@ -4613,7 +3879,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
         <v>454</v>
       </c>
@@ -4621,7 +3887,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
         <v>482</v>
       </c>
@@ -4629,7 +3895,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="6" t="s">
         <v>483</v>
       </c>
@@ -4637,7 +3903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="6" t="s">
         <v>181</v>
       </c>
@@ -4645,7 +3911,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="6" t="s">
         <v>484</v>
       </c>
@@ -4653,7 +3919,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="6" t="s">
         <v>485</v>
       </c>
@@ -4661,7 +3927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" s="6" t="s">
         <v>486</v>
       </c>
@@ -4669,7 +3935,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
         <v>530</v>
       </c>
@@ -4677,7 +3943,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2">
       <c r="A18" s="6" t="s">
         <v>531</v>
       </c>
@@ -4685,7 +3951,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>173</v>
       </c>
@@ -4693,7 +3959,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="15" customHeight="1">
       <c r="A20" t="s">
         <v>151</v>
       </c>
@@ -4701,7 +3967,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2">
       <c r="A21" s="6" t="s">
         <v>129</v>
       </c>
@@ -4709,7 +3975,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2">
       <c r="A22" s="6" t="s">
         <v>130</v>
       </c>
@@ -4717,7 +3983,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2">
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
@@ -4725,7 +3991,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
         <v>492</v>
       </c>
@@ -4733,7 +3999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
         <v>474</v>
       </c>
@@ -4741,7 +4007,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2">
       <c r="A26" s="6" t="s">
         <v>488</v>
       </c>
@@ -4749,7 +4015,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2">
       <c r="A27" s="6" t="s">
         <v>489</v>
       </c>
@@ -4757,7 +4023,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2">
       <c r="A28" s="6" t="s">
         <v>490</v>
       </c>
@@ -4765,7 +4031,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2">
       <c r="A29" s="6" t="s">
         <v>491</v>
       </c>
@@ -4773,7 +4039,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2">
       <c r="A30" s="6" t="s">
         <v>493</v>
       </c>
@@ -4781,7 +4047,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2">
       <c r="A31" s="6" t="s">
         <v>494</v>
       </c>
@@ -4789,7 +4055,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2">
       <c r="A32" s="6" t="s">
         <v>495</v>
       </c>
@@ -4797,7 +4063,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2">
       <c r="A33" s="6" t="s">
         <v>496</v>
       </c>
@@ -4805,7 +4071,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2">
       <c r="A34" s="6" t="s">
         <v>497</v>
       </c>
@@ -4813,7 +4079,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2">
       <c r="A35" s="6" t="s">
         <v>498</v>
       </c>
@@ -4821,7 +4087,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2">
       <c r="A36" s="6" t="s">
         <v>499</v>
       </c>
@@ -4829,7 +4095,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2">
       <c r="A37" s="6" t="s">
         <v>500</v>
       </c>
@@ -4837,7 +4103,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2">
       <c r="A38" s="6" t="s">
         <v>501</v>
       </c>
@@ -4845,7 +4111,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2">
       <c r="A39" s="6" t="s">
         <v>502</v>
       </c>
@@ -4853,7 +4119,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2">
       <c r="A40" s="6" t="s">
         <v>503</v>
       </c>
@@ -4861,60 +4127,60 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2">
       <c r="A41" s="6" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2">
       <c r="A42" s="6" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2">
       <c r="A43" s="6" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2">
       <c r="A44" s="6" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2">
       <c r="A45" s="6" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2">
       <c r="A46" s="6" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2">
       <c r="A47" s="6" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2">
       <c r="A48" s="6" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2">
       <c r="A49" s="6" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2">
       <c r="A50" s="6" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2">
       <c r="A51" s="6"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2">
       <c r="A52" s="6" t="s">
         <v>532</v>
       </c>
@@ -4922,7 +4188,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2">
       <c r="A53" s="6" t="s">
         <v>533</v>
       </c>
@@ -4930,7 +4196,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2">
       <c r="A54" s="6" t="s">
         <v>534</v>
       </c>
@@ -4938,7 +4204,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2">
       <c r="A55" s="6" t="s">
         <v>535</v>
       </c>
@@ -4946,7 +4212,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2">
       <c r="A56" s="6" t="s">
         <v>536</v>
       </c>
@@ -4954,7 +4220,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2">
       <c r="A57" s="6" t="s">
         <v>537</v>
       </c>
@@ -4962,28 +4228,808 @@
         <v>543</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3">
       <c r="C74" s="6"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3">
       <c r="A80" s="6"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1">
       <c r="A81" s="6"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1">
       <c r="A82" s="6"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1">
       <c r="A105" s="6"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>170</v>
       </c>
       <c r="B132" t="s">
         <v>171</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6B3CDC-0AFC-4B53-A9D5-8ABE836A7404}">
+  <dimension ref="A1:N75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7109375" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="7"/>
+      <c r="B2" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="K5" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="K6" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="K7" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="K8" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="K9" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="K10" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="7"/>
+      <c r="E20" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="7"/>
+      <c r="E21" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="7"/>
+      <c r="E22" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="7"/>
+      <c r="E23" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="7"/>
+      <c r="E28" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="7"/>
+      <c r="E29" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="7"/>
+      <c r="E30" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="7"/>
+      <c r="E31" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="7"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="7"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="7"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="7"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="7"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="7"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="C53" s="7"/>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="C54" s="7"/>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="C55" s="7"/>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="C56" s="7"/>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="C57" s="7"/>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="C58" s="7"/>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="C59" s="7"/>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="E66" s="7"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="E69" s="7"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="E70" s="7"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="E71" s="7"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="C75" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4992,1044 +5038,6 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6B3CDC-0AFC-4B53-A9D5-8ABE836A7404}">
-  <dimension ref="A1:N91"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.81640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.54296875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.81640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
-      <c r="B2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="D2" t="s">
-        <v>341</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="F2" t="s">
-        <v>341</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="H2" t="s">
-        <v>341</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="J2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="L2" t="s">
-        <v>341</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="N2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
-      <c r="B3"/>
-      <c r="C3" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="D3" t="s">
-        <v>341</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="F3" t="s">
-        <v>341</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="H3" t="s">
-        <v>341</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" t="s">
-        <v>341</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="L3" t="s">
-        <v>341</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="N3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
-      <c r="B4"/>
-      <c r="C4" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="D4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F4" t="s">
-        <v>341</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="H4" t="s">
-        <v>341</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" t="s">
-        <v>341</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="L4" t="s">
-        <v>341</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="N4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
-      <c r="B5"/>
-      <c r="C5" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="D5" t="s">
-        <v>341</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="F5" t="s">
-        <v>341</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="H5" t="s">
-        <v>341</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5"/>
-      <c r="K5" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="L5" t="s">
-        <v>341</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="N5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6"/>
-      <c r="C6" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="D6" t="s">
-        <v>341</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="F6"/>
-      <c r="G6" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="H6" t="s">
-        <v>341</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6"/>
-      <c r="K6" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="L6" t="s">
-        <v>341</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="N6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7"/>
-      <c r="C7" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="D7" t="s">
-        <v>341</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="F7"/>
-      <c r="G7" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="H7" t="s">
-        <v>341</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7"/>
-      <c r="K7" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="L7" t="s">
-        <v>341</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="N7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8"/>
-      <c r="C8" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="D8" t="s">
-        <v>341</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="F8"/>
-      <c r="G8" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="H8" t="s">
-        <v>341</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8"/>
-      <c r="K8" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="L8" t="s">
-        <v>341</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="N8" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
-      <c r="B9"/>
-      <c r="C9" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="D9" t="s">
-        <v>341</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="F9"/>
-      <c r="G9" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="H9"/>
-      <c r="I9" s="7"/>
-      <c r="K9" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="L9" t="s">
-        <v>341</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="N9" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
-      <c r="B10"/>
-      <c r="C10" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="D10" t="s">
-        <v>341</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="F10"/>
-      <c r="G10" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="H10"/>
-      <c r="I10" s="7"/>
-      <c r="K10" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="L10" t="s">
-        <v>341</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="N10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
-      <c r="B11"/>
-      <c r="C11" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="D11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="F11"/>
-      <c r="G11" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="H11"/>
-      <c r="K11" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="N11" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
-      <c r="B12"/>
-      <c r="C12" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="D12" t="s">
-        <v>341</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="F12"/>
-      <c r="G12" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="H12"/>
-      <c r="K12" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="N12" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
-      <c r="B13"/>
-      <c r="C13" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="F13"/>
-      <c r="G13" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="H13"/>
-      <c r="K13" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="N13" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
-      <c r="B14"/>
-      <c r="C14" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="D14"/>
-      <c r="E14" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="F14"/>
-      <c r="G14" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="H14"/>
-      <c r="K14" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="N14" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
-      <c r="B15"/>
-      <c r="C15" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="D15"/>
-      <c r="E15" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="F15"/>
-      <c r="G15" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="H15"/>
-      <c r="K15" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="N15" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
-      <c r="B16"/>
-      <c r="C16" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="D16"/>
-      <c r="E16" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F16"/>
-      <c r="G16" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="H16"/>
-      <c r="K16" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="N16" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="7"/>
-      <c r="B17"/>
-      <c r="C17" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="D17"/>
-      <c r="E17" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="F17"/>
-      <c r="G17" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="H17"/>
-      <c r="K17" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="7"/>
-      <c r="B18"/>
-      <c r="C18" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="D18"/>
-      <c r="E18" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="F18"/>
-      <c r="G18" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="H18"/>
-      <c r="K18" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="7"/>
-      <c r="B19"/>
-      <c r="C19" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="D19"/>
-      <c r="E19" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="F19"/>
-      <c r="G19" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="H19"/>
-      <c r="K19" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="7"/>
-      <c r="B20"/>
-      <c r="D20"/>
-      <c r="E20" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="F20"/>
-      <c r="G20" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="H20"/>
-      <c r="K20" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="7"/>
-      <c r="B21"/>
-      <c r="D21"/>
-      <c r="E21" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="F21"/>
-      <c r="H21"/>
-      <c r="M21" s="7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="7"/>
-      <c r="B22"/>
-      <c r="D22"/>
-      <c r="E22" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="F22"/>
-      <c r="H22"/>
-      <c r="M22" s="7" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="7"/>
-      <c r="B23"/>
-      <c r="D23"/>
-      <c r="E23" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="F23"/>
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="7"/>
-      <c r="B24"/>
-      <c r="D24"/>
-      <c r="E24" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="F24"/>
-      <c r="H24"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="7"/>
-      <c r="B25"/>
-      <c r="D25"/>
-      <c r="E25" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="F25"/>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="7"/>
-      <c r="B26"/>
-      <c r="D26"/>
-      <c r="E26" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F26"/>
-      <c r="G26" s="7"/>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="7"/>
-      <c r="B27"/>
-      <c r="D27"/>
-      <c r="E27" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="F27"/>
-      <c r="G27" s="7"/>
-      <c r="H27"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="7"/>
-      <c r="B28"/>
-      <c r="D28"/>
-      <c r="E28" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="F28"/>
-      <c r="G28" s="7"/>
-      <c r="H28"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="7"/>
-      <c r="B29"/>
-      <c r="D29"/>
-      <c r="E29" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="F29"/>
-      <c r="G29" s="7"/>
-      <c r="H29"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="7"/>
-      <c r="B30"/>
-      <c r="D30"/>
-      <c r="E30" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="F30"/>
-      <c r="G30" s="7"/>
-      <c r="H30"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="7"/>
-      <c r="B31"/>
-      <c r="D31"/>
-      <c r="E31" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="F31"/>
-      <c r="G31" s="7"/>
-      <c r="H31"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="7"/>
-      <c r="B32"/>
-      <c r="D32"/>
-      <c r="F32"/>
-      <c r="G32" s="7"/>
-      <c r="H32"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="7"/>
-      <c r="B33"/>
-      <c r="D33"/>
-      <c r="F33"/>
-      <c r="G33" s="7"/>
-      <c r="H33"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="7"/>
-      <c r="B34"/>
-      <c r="D34"/>
-      <c r="F34"/>
-      <c r="G34" s="7"/>
-      <c r="H34"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="7"/>
-      <c r="B35"/>
-      <c r="D35"/>
-      <c r="F35"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="7"/>
-      <c r="B36"/>
-      <c r="D36"/>
-      <c r="F36"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="7"/>
-      <c r="B37"/>
-      <c r="D37"/>
-      <c r="F37"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="7"/>
-      <c r="B38"/>
-      <c r="D38"/>
-      <c r="F38"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="7"/>
-      <c r="B39"/>
-      <c r="D39"/>
-      <c r="F39"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="7"/>
-      <c r="B40"/>
-      <c r="D40"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="7"/>
-      <c r="B41"/>
-      <c r="D41"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B42"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B43"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B44"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B45"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B46"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B47"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B48"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B49"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B50"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B51"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E52" s="7"/>
-      <c r="F52"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C53" s="7"/>
-      <c r="D53"/>
-      <c r="E53" s="7"/>
-      <c r="F53"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C54" s="7"/>
-      <c r="D54"/>
-      <c r="E54" s="7"/>
-      <c r="F54"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C55" s="7"/>
-      <c r="D55"/>
-      <c r="E55" s="7"/>
-      <c r="F55"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C56" s="7"/>
-      <c r="D56"/>
-      <c r="E56" s="7"/>
-      <c r="F56"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C57" s="7"/>
-      <c r="D57"/>
-      <c r="E57" s="7"/>
-      <c r="F57"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C58" s="7"/>
-      <c r="D58"/>
-      <c r="E58" s="7"/>
-      <c r="F58"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C59" s="7"/>
-      <c r="D59"/>
-      <c r="E59" s="7"/>
-      <c r="F59"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60"/>
-      <c r="E60" s="7"/>
-      <c r="F60"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61"/>
-      <c r="E61" s="7"/>
-      <c r="F61"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62"/>
-      <c r="E62" s="7"/>
-      <c r="F62"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63"/>
-      <c r="E63" s="7"/>
-      <c r="F63"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64"/>
-      <c r="E64" s="7"/>
-      <c r="F64"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65"/>
-      <c r="E65" s="7"/>
-      <c r="F65"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66"/>
-      <c r="E66" s="7"/>
-      <c r="F66"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67"/>
-      <c r="E67" s="7"/>
-      <c r="F67"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68"/>
-      <c r="E68" s="7"/>
-      <c r="F68"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69"/>
-      <c r="E69" s="7"/>
-      <c r="F69"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70"/>
-      <c r="E70" s="7"/>
-      <c r="F70"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E71" s="7"/>
-      <c r="F71"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F72"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F73"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F74"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C75" s="7"/>
-      <c r="F75"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F76"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F77"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F78"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F79"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F80"/>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F81"/>
-    </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F82"/>
-    </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F83"/>
-    </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F84"/>
-    </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F85"/>
-    </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F86"/>
-    </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F87"/>
-    </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F88"/>
-    </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F89"/>
-    </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F90"/>
-    </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F91"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDD6BF5-C159-4766-92DA-0E15E04E773E}">
   <dimension ref="A1:E34"/>
   <sheetViews>
@@ -6037,16 +5045,16 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.81640625" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -6060,7 +5068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>464</v>
       </c>
@@ -6077,7 +5085,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>463</v>
       </c>
@@ -6094,7 +5102,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>465</v>
       </c>
@@ -6108,7 +5116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>515</v>
       </c>
@@ -6122,7 +5130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>462</v>
       </c>
@@ -6136,7 +5144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>513</v>
       </c>
@@ -6153,7 +5161,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -6170,7 +5178,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>454</v>
       </c>
@@ -6184,7 +5192,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>181</v>
       </c>
@@ -6198,7 +5206,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>112</v>
       </c>
@@ -6212,7 +5220,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>173</v>
       </c>
@@ -6226,7 +5234,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>172</v>
       </c>
@@ -6240,7 +5248,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>450</v>
       </c>
@@ -6254,7 +5262,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>514</v>
       </c>
@@ -6268,25 +5276,25 @@
         <v>517</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2">
       <c r="B22" s="5"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:2">
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:2">
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:2">
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:2">
       <c r="B32" s="5"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2">
       <c r="B33" s="5"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2">
       <c r="B34" s="5"/>
     </row>
   </sheetData>
@@ -6319,195 +5327,195 @@
       <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="6"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" s="6"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" s="6"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" s="6"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" s="6"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" s="6"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9" s="6"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2">
       <c r="A10" s="6"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2">
       <c r="A11" s="6"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="A12" s="6"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2">
       <c r="A14" s="6"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2">
       <c r="A15" s="6"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2">
       <c r="A16" s="6"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1">
       <c r="A17" s="6"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1">
       <c r="A18" s="6"/>
     </row>
-    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" ht="15" customHeight="1"/>
+    <row r="21" spans="1:1">
       <c r="A21" s="6"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1">
       <c r="A22" s="6"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1">
       <c r="A23" s="6"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1">
       <c r="A24" s="6"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1">
       <c r="A25" s="6"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1">
       <c r="A26" s="6"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1">
       <c r="A27" s="6"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1">
       <c r="A28" s="6"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1">
       <c r="A29" s="6"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1">
       <c r="A30" s="6"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1">
       <c r="A31" s="6"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1">
       <c r="A32" s="6"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1">
       <c r="A33" s="6"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1">
       <c r="A34" s="6"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1">
       <c r="A35" s="6"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1">
       <c r="A36" s="6"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1">
       <c r="A37" s="6"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1">
       <c r="A38" s="6"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1">
       <c r="A39" s="6"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1">
       <c r="A40" s="6"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1">
       <c r="A41" s="6"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1">
       <c r="A42" s="6"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1">
       <c r="A43" s="6"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1">
       <c r="A44" s="6"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1">
       <c r="A45" s="6"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1">
       <c r="A46" s="6"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1">
       <c r="A47" s="6"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1">
       <c r="A48" s="6"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1">
       <c r="A49" s="6"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1">
       <c r="A50" s="6"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1">
       <c r="A51" s="6"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1">
       <c r="A52" s="6"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1">
       <c r="A53" s="6"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1">
       <c r="A55" s="6"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1">
       <c r="A56" s="6"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1">
       <c r="A57" s="6"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1">
       <c r="A80" s="6"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1">
       <c r="A81" s="6"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1">
       <c r="A82" s="6"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1">
       <c r="A105" s="6"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1">
       <c r="A132" t="s">
         <v>170</v>
       </c>
@@ -6520,90 +5528,193 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50DB6969-FCD4-4AC0-8731-C3FC2B56364B}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9A6D5F-4ADD-40C7-BC29-FB462C3271E9}">
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>544</v>
+    <row r="1" spans="1:14" s="13" customFormat="1">
+      <c r="A1" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>568</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="D2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E2" t="s">
+        <v>553</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="G2" t="s">
+        <v>557</v>
+      </c>
+      <c r="H2" t="s">
+        <v>562</v>
+      </c>
+      <c r="I2" t="s">
+        <v>563</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="K2" t="s">
+        <v>565</v>
+      </c>
+      <c r="L2" t="s">
+        <v>569</v>
+      </c>
+      <c r="M2" t="s">
+        <v>570</v>
+      </c>
+      <c r="N2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="D3" t="s">
+        <v>552</v>
+      </c>
+      <c r="E3" t="s">
+        <v>571</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="G3" t="s">
+        <v>557</v>
+      </c>
+      <c r="H3" t="s">
+        <v>562</v>
+      </c>
+      <c r="I3" t="s">
+        <v>563</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="K3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="C4" s="5" t="s">
+        <v>572</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{3C80A37F-1BB2-4ED7-9BFE-1B1BF601C38C}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{F1D2BB13-1C81-4D90-8542-1476FF315AA6}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{379E461C-6E89-4160-A918-B8DAD61334CD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9A6D5F-4ADD-40C7-BC29-FB462C3271E9}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E9CAEF-20FE-486B-8700-9F7734702923}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="39.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>549</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>546</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{3C80A37F-1BB2-4ED7-9BFE-1B1BF601C38C}"/>
-  </hyperlinks>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E9CAEF-20FE-486B-8700-9F7734702923}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD599698-DBBA-4A68-9359-509216B4F0DF}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD599698-DBBA-4A68-9359-509216B4F0DF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD53744-91AA-45F2-BD5B-D22DA6D78137}">
   <dimension ref="A1:E34"/>
   <sheetViews>
@@ -6611,16 +5722,16 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.81640625" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -6634,7 +5745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>464</v>
       </c>
@@ -6651,7 +5762,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>463</v>
       </c>
@@ -6668,7 +5779,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>465</v>
       </c>
@@ -6682,7 +5793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>515</v>
       </c>
@@ -6696,7 +5807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>462</v>
       </c>
@@ -6710,7 +5821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>513</v>
       </c>
@@ -6727,7 +5838,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -6744,7 +5855,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>454</v>
       </c>
@@ -6758,7 +5869,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>181</v>
       </c>
@@ -6772,7 +5883,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>112</v>
       </c>
@@ -6786,7 +5897,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>173</v>
       </c>
@@ -6800,7 +5911,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>172</v>
       </c>
@@ -6814,7 +5925,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>450</v>
       </c>
@@ -6828,7 +5939,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>514</v>
       </c>
@@ -6842,25 +5953,25 @@
         <v>517</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2">
       <c r="B22" s="5"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:2">
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:2">
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:2">
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:2">
       <c r="B32" s="5"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2">
       <c r="B33" s="5"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2">
       <c r="B34" s="5"/>
     </row>
   </sheetData>
@@ -6885,7 +5996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59C213A-05F4-4841-BAEC-85842C4D1CD7}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -6893,14 +6004,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
@@ -6908,12 +6019,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -6921,7 +6032,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -6929,12 +6040,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -6947,7 +6058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3BCABF-0B84-4F1D-A86D-03D73AE2839E}">
   <dimension ref="A1:D77"/>
   <sheetViews>
@@ -6955,15 +6066,15 @@
       <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>459</v>
       </c>
@@ -6974,7 +6085,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
         <v>73</v>
       </c>
@@ -6982,7 +6093,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
         <v>74</v>
       </c>
@@ -6996,7 +6107,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
         <v>75</v>
       </c>
@@ -7010,7 +6121,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
         <v>76</v>
       </c>
@@ -7024,7 +6135,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" s="6" t="s">
         <v>77</v>
       </c>
@@ -7032,22 +6143,22 @@
         <v>459</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10" s="6" t="s">
         <v>81</v>
       </c>
@@ -7058,28 +6169,28 @@
         <v>461</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11" s="6" t="s">
         <v>82</v>
       </c>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="A12" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4">
       <c r="A14" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4">
       <c r="A15" s="6" t="s">
         <v>85</v>
       </c>
@@ -7087,7 +6198,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4">
       <c r="A16" s="6" t="s">
         <v>86</v>
       </c>
@@ -7095,7 +6206,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="A17" s="6" t="s">
         <v>87</v>
       </c>
@@ -7106,7 +6217,7 @@
         <v>45480</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4">
       <c r="A18" s="6" t="s">
         <v>88</v>
       </c>
@@ -7114,7 +6225,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4">
       <c r="A19" s="6" t="s">
         <v>89</v>
       </c>
@@ -7122,7 +6233,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4">
       <c r="A20" s="6" t="s">
         <v>90</v>
       </c>
@@ -7130,7 +6241,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4">
       <c r="A21" s="6" t="s">
         <v>91</v>
       </c>
@@ -7138,7 +6249,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4">
       <c r="A22" s="6" t="s">
         <v>92</v>
       </c>
@@ -7146,7 +6257,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4">
       <c r="A23" s="6" t="s">
         <v>83</v>
       </c>
@@ -7157,7 +6268,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4">
       <c r="A24" s="6" t="s">
         <v>87</v>
       </c>
@@ -7168,7 +6279,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4">
       <c r="A25" s="6" t="s">
         <v>86</v>
       </c>
@@ -7179,17 +6290,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4">
       <c r="C26" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
+        <v>544</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>545</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -7198,4 +6309,507 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FB94A1-E8D6-4BE6-B882-526070DB15E4}">
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>30</v>
+      </c>
+      <c r="B1">
+        <v>40</v>
+      </c>
+      <c r="C1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/test-data/qa7/testData.xlsx
+++ b/src/test/resources/test-data/qa7/testData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sravanthi.Thammera\Downloads\Vignesh_Automation\src\test\resources\test-data\qa7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vigneshwaran.sesurag\Gradle\CPP_Automation-Chatr\src\test\resources\test-data\qa7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4B9036-8392-406E-A9B2-7641B8DD3BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DCE8ED-3873-4938-8C43-FE74D0BB15FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Voucher" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="569">
   <si>
     <t>Voucher25</t>
   </si>
@@ -1683,9 +1683,6 @@
     <t>eas6</t>
   </si>
   <si>
-    <t>4169041183</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -1702,6 +1699,63 @@
   </si>
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>PlanTab</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>DateOfBirth</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>ProvinceFullName</t>
+  </si>
+  <si>
+    <t>CityAddress</t>
+  </si>
+  <si>
+    <t>4G Nation-Wide Talk, Text &amp; Data</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>01/01/2000</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>4 Ambler Bay</t>
+  </si>
+  <si>
+    <t>4163191164</t>
   </si>
 </sst>
 </file>
@@ -1711,7 +1765,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000000000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1755,6 +1809,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1803,7 +1868,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1828,6 +1893,13 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2116,26 +2188,26 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.54296875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.81640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="12.85546875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="9.85546875"/>
+    <col min="3" max="3" customWidth="true" style="3" width="12.85546875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="9.85546875"/>
+    <col min="5" max="5" customWidth="true" style="3" width="12.85546875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="3" width="9.85546875"/>
+    <col min="7" max="7" customWidth="true" style="3" width="12.7109375"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="9.85546875"/>
+    <col min="9" max="9" customWidth="true" style="3" width="13.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="9.85546875"/>
+    <col min="11" max="11" customWidth="true" style="3" width="13.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="3" width="9.85546875"/>
+    <col min="13" max="13" customWidth="true" style="3" width="12.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="3" width="9.85546875"/>
+    <col min="15" max="16384" style="3" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15.75">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2179,650 +2251,650 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2" s="7"/>
-      <c r="B2"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="7"/>
-      <c r="D2"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="7"/>
-      <c r="F2"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="7"/>
-      <c r="H2"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="10"/>
-      <c r="J2"/>
+      <c r="J2" s="3"/>
       <c r="K2" s="10"/>
-      <c r="L2"/>
+      <c r="L2" s="3"/>
       <c r="M2" s="7"/>
-      <c r="N2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="7"/>
-      <c r="B3"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="7"/>
-      <c r="D3"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="7"/>
-      <c r="F3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="7"/>
-      <c r="H3"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="7"/>
-      <c r="J3"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="10"/>
-      <c r="L3"/>
+      <c r="L3" s="3"/>
       <c r="M3" s="7"/>
-      <c r="N3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="7"/>
-      <c r="B4"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="7"/>
-      <c r="D4"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="7"/>
-      <c r="F4"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="7"/>
-      <c r="H4"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="7"/>
-      <c r="J4"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="10"/>
-      <c r="L4"/>
+      <c r="L4" s="3"/>
       <c r="M4" s="7"/>
-      <c r="N4"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="7"/>
-      <c r="B5"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="7"/>
-      <c r="D5"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="7"/>
-      <c r="F5"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="7"/>
-      <c r="H5"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="7"/>
-      <c r="J5"/>
+      <c r="J5" s="3"/>
       <c r="K5" s="10"/>
-      <c r="L5"/>
+      <c r="L5" s="3"/>
       <c r="M5" s="7"/>
-      <c r="N5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="7"/>
-      <c r="B6"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="7"/>
-      <c r="D6"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="7"/>
-      <c r="F6"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="7"/>
-      <c r="H6"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="7"/>
-      <c r="J6"/>
+      <c r="J6" s="3"/>
       <c r="K6" s="10"/>
-      <c r="L6"/>
+      <c r="L6" s="3"/>
       <c r="M6" s="7"/>
-      <c r="N6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="7"/>
-      <c r="B7"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="7"/>
-      <c r="D7"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="7"/>
-      <c r="F7"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="7"/>
-      <c r="H7"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="7"/>
-      <c r="J7"/>
+      <c r="J7" s="3"/>
       <c r="K7" s="10"/>
-      <c r="L7"/>
+      <c r="L7" s="3"/>
       <c r="M7" s="7"/>
-      <c r="N7"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="7"/>
-      <c r="B8"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="7"/>
-      <c r="D8"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="7"/>
-      <c r="F8"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="7"/>
-      <c r="H8"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="7"/>
-      <c r="J8"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="10"/>
-      <c r="L8"/>
+      <c r="L8" s="3"/>
       <c r="M8" s="7"/>
-      <c r="N8"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="7"/>
-      <c r="B9"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="7"/>
-      <c r="D9"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="7"/>
-      <c r="F9"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="7"/>
-      <c r="H9"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="7"/>
       <c r="K9" s="10"/>
-      <c r="L9"/>
+      <c r="L9" s="3"/>
       <c r="M9" s="7"/>
-      <c r="N9"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="7"/>
-      <c r="B10"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="7"/>
-      <c r="D10"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="7"/>
-      <c r="F10"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="7"/>
-      <c r="H10"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="7"/>
       <c r="K10" s="10"/>
-      <c r="L10"/>
+      <c r="L10" s="3"/>
       <c r="M10" s="7"/>
-      <c r="N10"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="7"/>
-      <c r="B11"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="7"/>
-      <c r="D11"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="7"/>
-      <c r="F11"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="7"/>
-      <c r="H11"/>
+      <c r="H11" s="3"/>
       <c r="K11" s="10"/>
       <c r="M11" s="7"/>
-      <c r="N11"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="7"/>
-      <c r="B12"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="7"/>
-      <c r="D12"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="7"/>
-      <c r="F12"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="7"/>
-      <c r="H12"/>
+      <c r="H12" s="3"/>
       <c r="K12" s="10"/>
       <c r="M12" s="7"/>
-      <c r="N12"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="7"/>
-      <c r="B13"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="7"/>
-      <c r="D13"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="7"/>
-      <c r="F13"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="7"/>
-      <c r="H13"/>
+      <c r="H13" s="3"/>
       <c r="K13" s="10"/>
       <c r="M13" s="7"/>
-      <c r="N13"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="7"/>
-      <c r="B14"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="7"/>
-      <c r="D14"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="7"/>
-      <c r="F14"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="7"/>
-      <c r="H14"/>
+      <c r="H14" s="3"/>
       <c r="K14" s="10"/>
       <c r="M14" s="7"/>
-      <c r="N14"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="7"/>
-      <c r="B15"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="7"/>
-      <c r="D15"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="7"/>
-      <c r="F15"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="7"/>
-      <c r="H15"/>
+      <c r="H15" s="3"/>
       <c r="K15" s="10"/>
       <c r="M15" s="7"/>
-      <c r="N15"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="7"/>
-      <c r="B16"/>
+      <c r="B16" s="3"/>
       <c r="C16" s="7"/>
-      <c r="D16"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="7"/>
-      <c r="F16"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="7"/>
-      <c r="H16"/>
+      <c r="H16" s="3"/>
       <c r="K16" s="10"/>
       <c r="M16" s="7"/>
-      <c r="N16"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="7"/>
-      <c r="B17"/>
+      <c r="B17" s="3"/>
       <c r="C17" s="7"/>
-      <c r="D17"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="7"/>
-      <c r="F17"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="7"/>
-      <c r="H17"/>
+      <c r="H17" s="3"/>
       <c r="K17" s="10"/>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13">
       <c r="A18" s="7"/>
-      <c r="B18"/>
+      <c r="B18" s="3"/>
       <c r="C18" s="7"/>
-      <c r="D18"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="7"/>
-      <c r="F18"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="7"/>
-      <c r="H18"/>
+      <c r="H18" s="3"/>
       <c r="K18" s="10"/>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13">
       <c r="A19" s="7"/>
-      <c r="B19"/>
+      <c r="B19" s="3"/>
       <c r="C19" s="7"/>
-      <c r="D19"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="7"/>
-      <c r="F19"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="7"/>
-      <c r="H19"/>
+      <c r="H19" s="3"/>
       <c r="K19" s="10"/>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13">
       <c r="A20" s="7"/>
-      <c r="B20"/>
-      <c r="D20"/>
+      <c r="B20" s="3"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="7"/>
-      <c r="F20"/>
+      <c r="F20" s="3"/>
       <c r="G20" s="7"/>
-      <c r="H20"/>
+      <c r="H20" s="3"/>
       <c r="K20" s="10"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13">
       <c r="A21" s="7"/>
-      <c r="B21"/>
-      <c r="D21"/>
+      <c r="B21" s="3"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="7"/>
-      <c r="F21"/>
-      <c r="H21"/>
+      <c r="F21" s="3"/>
+      <c r="H21" s="3"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13">
       <c r="A22" s="7"/>
-      <c r="B22"/>
-      <c r="D22"/>
+      <c r="B22" s="3"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="7"/>
-      <c r="F22"/>
-      <c r="H22"/>
+      <c r="F22" s="3"/>
+      <c r="H22" s="3"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13">
       <c r="A23" s="7"/>
-      <c r="B23"/>
-      <c r="D23"/>
+      <c r="B23" s="3"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="7"/>
-      <c r="F23"/>
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="7"/>
-      <c r="B24"/>
-      <c r="D24"/>
+      <c r="B24" s="3"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="7"/>
-      <c r="F24"/>
-      <c r="H24"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="7"/>
-      <c r="B25"/>
-      <c r="D25"/>
+      <c r="B25" s="3"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="7"/>
-      <c r="F25"/>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="7"/>
-      <c r="B26"/>
-      <c r="D26"/>
+      <c r="B26" s="3"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="7"/>
-      <c r="F26"/>
+      <c r="F26" s="3"/>
       <c r="G26" s="7"/>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="7"/>
-      <c r="B27"/>
-      <c r="D27"/>
+      <c r="B27" s="3"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="7"/>
-      <c r="F27"/>
+      <c r="F27" s="3"/>
       <c r="G27" s="7"/>
-      <c r="H27"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="7"/>
-      <c r="B28"/>
-      <c r="D28"/>
+      <c r="B28" s="3"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="7"/>
-      <c r="F28"/>
+      <c r="F28" s="3"/>
       <c r="G28" s="7"/>
-      <c r="H28"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="7"/>
-      <c r="B29"/>
-      <c r="D29"/>
+      <c r="B29" s="3"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="7"/>
-      <c r="F29"/>
+      <c r="F29" s="3"/>
       <c r="G29" s="7"/>
-      <c r="H29"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="7"/>
-      <c r="B30"/>
-      <c r="D30"/>
+      <c r="B30" s="3"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="7"/>
-      <c r="F30"/>
+      <c r="F30" s="3"/>
       <c r="G30" s="7"/>
-      <c r="H30"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="7"/>
-      <c r="B31"/>
-      <c r="D31"/>
+      <c r="B31" s="3"/>
+      <c r="D31" s="3"/>
       <c r="E31" s="7"/>
-      <c r="F31"/>
+      <c r="F31" s="3"/>
       <c r="G31" s="7"/>
-      <c r="H31"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="7"/>
-      <c r="B32"/>
-      <c r="D32"/>
-      <c r="F32"/>
+      <c r="B32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="F32" s="3"/>
       <c r="G32" s="7"/>
-      <c r="H32"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="7"/>
-      <c r="B33"/>
-      <c r="D33"/>
-      <c r="F33"/>
+      <c r="B33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="F33" s="3"/>
       <c r="G33" s="7"/>
-      <c r="H33"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="7"/>
-      <c r="B34"/>
-      <c r="D34"/>
-      <c r="F34"/>
+      <c r="B34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="F34" s="3"/>
       <c r="G34" s="7"/>
-      <c r="H34"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="7"/>
-      <c r="B35"/>
-      <c r="D35"/>
-      <c r="F35"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="7"/>
-      <c r="B36"/>
-      <c r="D36"/>
-      <c r="F36"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="7"/>
-      <c r="B37"/>
-      <c r="D37"/>
-      <c r="F37"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="7"/>
-      <c r="B38"/>
-      <c r="D38"/>
-      <c r="F38"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="7"/>
-      <c r="B39"/>
-      <c r="D39"/>
-      <c r="F39"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="7"/>
-      <c r="B40"/>
-      <c r="D40"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B40" s="3"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="7"/>
-      <c r="B41"/>
-      <c r="D41"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B42"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B43"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B44"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B45"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B46"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B47"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B48"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B49"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B50"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B51"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B41" s="3"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:6">
       <c r="E52" s="7"/>
-      <c r="F52"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6">
       <c r="C53" s="7"/>
-      <c r="D53"/>
+      <c r="D53" s="3"/>
       <c r="E53" s="7"/>
-      <c r="F53"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6">
       <c r="C54" s="7"/>
-      <c r="D54"/>
+      <c r="D54" s="3"/>
       <c r="E54" s="7"/>
-      <c r="F54"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6">
       <c r="C55" s="7"/>
-      <c r="D55"/>
+      <c r="D55" s="3"/>
       <c r="E55" s="7"/>
-      <c r="F55"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6">
       <c r="C56" s="7"/>
-      <c r="D56"/>
+      <c r="D56" s="3"/>
       <c r="E56" s="7"/>
-      <c r="F56"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6">
       <c r="C57" s="7"/>
-      <c r="D57"/>
+      <c r="D57" s="3"/>
       <c r="E57" s="7"/>
-      <c r="F57"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6">
       <c r="C58" s="7"/>
-      <c r="D58"/>
+      <c r="D58" s="3"/>
       <c r="E58" s="7"/>
-      <c r="F58"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6">
       <c r="C59" s="7"/>
-      <c r="D59"/>
+      <c r="D59" s="3"/>
       <c r="E59" s="7"/>
-      <c r="F59"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="7"/>
       <c r="C60" s="7"/>
-      <c r="D60"/>
+      <c r="D60" s="3"/>
       <c r="E60" s="7"/>
-      <c r="F60"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="7"/>
       <c r="C61" s="7"/>
-      <c r="D61"/>
+      <c r="D61" s="3"/>
       <c r="E61" s="7"/>
-      <c r="F61"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="7"/>
       <c r="C62" s="7"/>
-      <c r="D62"/>
+      <c r="D62" s="3"/>
       <c r="E62" s="7"/>
-      <c r="F62"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="7"/>
       <c r="C63" s="7"/>
-      <c r="D63"/>
+      <c r="D63" s="3"/>
       <c r="E63" s="7"/>
-      <c r="F63"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="7"/>
       <c r="C64" s="7"/>
-      <c r="D64"/>
+      <c r="D64" s="3"/>
       <c r="E64" s="7"/>
-      <c r="F64"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="7"/>
       <c r="C65" s="7"/>
-      <c r="D65"/>
+      <c r="D65" s="3"/>
       <c r="E65" s="7"/>
-      <c r="F65"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="7"/>
       <c r="C66" s="7"/>
-      <c r="D66"/>
+      <c r="D66" s="3"/>
       <c r="E66" s="7"/>
-      <c r="F66"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="7"/>
       <c r="C67" s="7"/>
-      <c r="D67"/>
+      <c r="D67" s="3"/>
       <c r="E67" s="7"/>
-      <c r="F67"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="7"/>
       <c r="C68" s="7"/>
-      <c r="D68"/>
+      <c r="D68" s="3"/>
       <c r="E68" s="7"/>
-      <c r="F68"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="7"/>
       <c r="C69" s="7"/>
-      <c r="D69"/>
+      <c r="D69" s="3"/>
       <c r="E69" s="7"/>
-      <c r="F69"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="7"/>
       <c r="C70" s="7"/>
-      <c r="D70"/>
+      <c r="D70" s="3"/>
       <c r="E70" s="7"/>
-      <c r="F70"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:6">
       <c r="E71" s="7"/>
-      <c r="F71"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F72"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F73"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F74"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="1:6">
       <c r="C75" s="7"/>
-      <c r="F75"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F76"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F77"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F78"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F79"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F80"/>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F81"/>
-    </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F82"/>
-    </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F83"/>
-    </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F84"/>
-    </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F85"/>
-    </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F86"/>
-    </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F87"/>
-    </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F88"/>
-    </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F89"/>
-    </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F90"/>
-    </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F91"/>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="6:6">
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="6:6">
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="6:6">
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="6:6">
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="6:6">
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="6:6">
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="6:6">
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="6:6">
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="6:6">
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="6:6">
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="6:6">
+      <c r="F91" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2838,25 +2910,25 @@
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.42578125"/>
+    <col min="2" max="2" customWidth="true" width="16.140625"/>
+    <col min="3" max="3" customWidth="true" width="22.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1">
+    <row r="1" spans="1:3">
+      <c r="A1" s="0">
         <v>30</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="0">
         <v>40</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="0">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
         <v>248</v>
       </c>
@@ -2867,7 +2939,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
         <v>249</v>
       </c>
@@ -2878,7 +2950,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
         <v>250</v>
       </c>
@@ -2889,7 +2961,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
         <v>251</v>
       </c>
@@ -2900,7 +2972,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
         <v>252</v>
       </c>
@@ -2911,7 +2983,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="10" t="s">
         <v>253</v>
       </c>
@@ -2922,7 +2994,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="10" t="s">
         <v>254</v>
       </c>
@@ -2933,7 +3005,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="10" t="s">
         <v>255</v>
       </c>
@@ -2944,7 +3016,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="10" t="s">
         <v>256</v>
       </c>
@@ -2955,7 +3027,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="10" t="s">
         <v>257</v>
       </c>
@@ -2966,7 +3038,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="10" t="s">
         <v>258</v>
       </c>
@@ -2977,7 +3049,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="10" t="s">
         <v>259</v>
       </c>
@@ -2988,7 +3060,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="10" t="s">
         <v>260</v>
       </c>
@@ -2999,7 +3071,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="10" t="s">
         <v>261</v>
       </c>
@@ -3010,7 +3082,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" s="10" t="s">
         <v>262</v>
       </c>
@@ -3021,7 +3093,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="10" t="s">
         <v>263</v>
       </c>
@@ -3032,7 +3104,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" s="10" t="s">
         <v>264</v>
       </c>
@@ -3043,7 +3115,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="A19" s="10" t="s">
         <v>265</v>
       </c>
@@ -3054,7 +3126,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="A20" s="10" t="s">
         <v>266</v>
       </c>
@@ -3065,7 +3137,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" s="10" t="s">
         <v>267</v>
       </c>
@@ -3076,7 +3148,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3">
       <c r="A22" s="10" t="s">
         <v>268</v>
       </c>
@@ -3087,7 +3159,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="A23" s="10" t="s">
         <v>269</v>
       </c>
@@ -3098,7 +3170,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3">
       <c r="A24" s="10" t="s">
         <v>270</v>
       </c>
@@ -3109,7 +3181,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3">
       <c r="A25" s="10" t="s">
         <v>271</v>
       </c>
@@ -3120,7 +3192,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3">
       <c r="A26" s="10" t="s">
         <v>272</v>
       </c>
@@ -3128,7 +3200,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3">
       <c r="A27" s="10" t="s">
         <v>273</v>
       </c>
@@ -3136,7 +3208,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3">
       <c r="A28" s="10" t="s">
         <v>274</v>
       </c>
@@ -3144,7 +3216,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3">
       <c r="A29" s="10" t="s">
         <v>275</v>
       </c>
@@ -3152,7 +3224,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3">
       <c r="A30" s="10" t="s">
         <v>276</v>
       </c>
@@ -3160,7 +3232,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3">
       <c r="A31" s="10" t="s">
         <v>277</v>
       </c>
@@ -3168,7 +3240,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3">
       <c r="A32" s="10" t="s">
         <v>278</v>
       </c>
@@ -3176,7 +3248,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2">
       <c r="A33" s="10" t="s">
         <v>279</v>
       </c>
@@ -3184,7 +3256,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2">
       <c r="A34" s="10" t="s">
         <v>280</v>
       </c>
@@ -3192,7 +3264,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2">
       <c r="A35" s="10" t="s">
         <v>281</v>
       </c>
@@ -3200,7 +3272,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2">
       <c r="A36" s="10" t="s">
         <v>282</v>
       </c>
@@ -3208,7 +3280,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2">
       <c r="A37" s="10" t="s">
         <v>283</v>
       </c>
@@ -3216,7 +3288,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2">
       <c r="A38" s="10" t="s">
         <v>284</v>
       </c>
@@ -3224,7 +3296,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2">
       <c r="A39" s="10" t="s">
         <v>285</v>
       </c>
@@ -3232,7 +3304,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2">
       <c r="A40" s="10" t="s">
         <v>286</v>
       </c>
@@ -3240,7 +3312,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2">
       <c r="A41" s="10" t="s">
         <v>287</v>
       </c>
@@ -3248,7 +3320,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2">
       <c r="A42" s="10" t="s">
         <v>288</v>
       </c>
@@ -3256,7 +3328,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2">
       <c r="A43" s="10" t="s">
         <v>289</v>
       </c>
@@ -3264,7 +3336,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2">
       <c r="A44" s="10" t="s">
         <v>290</v>
       </c>
@@ -3272,7 +3344,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2">
       <c r="A45" s="10" t="s">
         <v>291</v>
       </c>
@@ -3280,7 +3352,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2">
       <c r="A46" s="10" t="s">
         <v>292</v>
       </c>
@@ -3288,7 +3360,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2">
       <c r="A47" s="10" t="s">
         <v>293</v>
       </c>
@@ -3296,7 +3368,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2">
       <c r="A48" s="10" t="s">
         <v>294</v>
       </c>
@@ -3304,7 +3376,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2">
       <c r="A49" s="10" t="s">
         <v>295</v>
       </c>
@@ -3312,7 +3384,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2">
       <c r="A50" s="10" t="s">
         <v>296</v>
       </c>
@@ -3320,7 +3392,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2">
       <c r="A51" s="10" t="s">
         <v>297</v>
       </c>
@@ -3341,1132 +3413,1132 @@
       <selection activeCell="A36" sqref="A36:C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" customWidth="1"/>
-    <col min="2" max="2" width="39.1796875" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" customWidth="1"/>
-    <col min="4" max="4" width="23.1796875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.140625"/>
+    <col min="2" max="2" customWidth="true" width="39.140625"/>
+    <col min="3" max="3" customWidth="true" width="17.85546875"/>
+    <col min="4" max="4" customWidth="true" width="23.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s" s="0">
         <v>60</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:4">
+      <c r="A2" s="0">
         <v>4168171261</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s" s="0">
         <v>71</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" t="s" s="0">
         <v>72</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" t="s" s="0">
         <v>73</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" t="s" s="0">
         <v>61</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" t="s" s="0">
         <v>59</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" t="s" s="0">
         <v>52</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" t="s" s="0">
         <v>93</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" t="s" s="0">
         <v>42</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" t="s" s="0">
         <v>39</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" t="s" s="0">
         <v>55</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" t="s" s="0">
         <v>56</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" t="s" s="0">
         <v>57</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" t="s" s="0">
         <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" t="s" s="0">
         <v>40</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" t="s" s="0">
         <v>41</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" t="s" s="0">
         <v>41</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" t="s" s="0">
         <v>119</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" t="s" s="0">
         <v>122</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" t="s" s="0">
         <v>108</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>415</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" t="s" s="0">
         <v>125</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" t="s" s="0">
         <v>111</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="0">
         <v>456</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" t="s" s="0">
         <v>108</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" t="s" s="0">
         <v>445</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="s" s="0">
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
+    <row r="28" spans="1:4">
+      <c r="B28" t="s" s="0">
         <v>470</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4">
       <c r="A29" s="6" t="s">
         <v>193</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" t="s" s="0">
         <v>525</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" t="s" s="0">
         <v>448</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" t="s" s="0">
         <v>524</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" t="s" s="0">
         <v>109</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" t="s" s="0">
         <v>526</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" t="s" s="0">
         <v>110</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" t="s" s="0">
         <v>527</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="33" spans="1:4">
+      <c r="A33" t="s" s="0">
         <v>181</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" t="s" s="0">
         <v>523</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" t="s" s="0">
         <v>123</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" t="s" s="0">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4">
       <c r="B35" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="36" spans="1:4">
+      <c r="A36" t="s" s="0">
         <v>112</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" t="s" s="0">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D37" t="s">
+    <row r="37" spans="1:4">
+      <c r="D37" t="s" s="0">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="38" spans="1:4">
+      <c r="A38" t="s" s="0">
         <v>31</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" t="s" s="0">
         <v>460</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+    <row r="39" spans="1:4">
+      <c r="A39" t="s" s="0">
         <v>108</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" t="s" s="0">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="40" spans="1:4">
+      <c r="A40" t="s" s="0">
         <v>175</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" t="s" s="0">
         <v>528</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="41" spans="1:4">
+      <c r="A41" t="s" s="0">
         <v>175</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" t="s" s="0">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+    <row r="42" spans="1:4">
+      <c r="A42" t="s" s="0">
         <v>108</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" t="s" s="0">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    <row r="43" spans="1:4">
+      <c r="A43" t="s" s="0">
         <v>151</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" t="s" s="0">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    <row r="44" spans="1:4">
+      <c r="A44" t="s" s="0">
         <v>45</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+    <row r="45" spans="1:4">
+      <c r="A45" t="s" s="0">
         <v>49</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" t="s" s="0">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+    <row r="46" spans="1:4">
+      <c r="A46" t="s" s="0">
         <v>174</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" t="s" s="0">
         <v>529</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D47" t="s">
+    <row r="47" spans="1:4">
+      <c r="D47" t="s" s="0">
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    <row r="48" spans="1:4">
+      <c r="A48" t="s" s="0">
         <v>107</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" t="s" s="0">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2">
       <c r="A50" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" t="s" s="0">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2">
       <c r="A51" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" t="s" s="0">
         <v>446</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2">
       <c r="A52" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" t="s" s="0">
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2">
       <c r="A53" s="6"/>
-      <c r="B53" t="s">
+      <c r="B53" t="s" s="0">
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2">
       <c r="A54" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" t="s" s="0">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2">
       <c r="A55" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" t="s" s="0">
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2">
       <c r="A56" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" t="s" s="0">
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" t="s" s="0">
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2">
       <c r="A58" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" t="s" s="0">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" t="s" s="0">
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2">
       <c r="A60" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" t="s" s="0">
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2">
       <c r="A61" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" t="s" s="0">
         <v>444</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" t="s" s="0">
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" t="s" s="0">
         <v>522</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" t="s" s="0">
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2">
       <c r="A66" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2">
       <c r="A67" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" t="s" s="0">
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2">
       <c r="A68" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" t="s" s="0">
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" t="s" s="0">
         <v>413</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2">
       <c r="A76" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" t="s" s="0">
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2">
       <c r="A77" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" t="s" s="0">
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2">
       <c r="A78" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" t="s" s="0">
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2">
       <c r="A79" s="6"/>
-      <c r="B79" t="s">
+      <c r="B79" t="s" s="0">
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+    <row r="80" spans="1:2">
+      <c r="A80" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" t="s" s="0">
         <v>142</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B81" t="s">
+    <row r="81" spans="1:2">
+      <c r="B81" t="s" s="0">
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2">
       <c r="A82" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" t="s" s="0">
         <v>458</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2">
       <c r="A83" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" t="s" s="0">
         <v>143</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+    <row r="84" spans="1:2">
+      <c r="A84" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" t="s" s="0">
         <v>452</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+    <row r="85" spans="1:2">
+      <c r="A85" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+    <row r="86" spans="1:2">
+      <c r="A86" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2">
       <c r="A87" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+    <row r="88" spans="1:2">
+      <c r="A88" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+    <row r="89" spans="1:2">
+      <c r="A89" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2">
       <c r="A90" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2">
       <c r="A91" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2">
       <c r="A92" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2">
       <c r="A93" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+    <row r="94" spans="1:2">
+      <c r="A94" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2">
       <c r="A95" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2">
       <c r="A96" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2">
       <c r="A97" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2">
       <c r="A98" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2">
       <c r="A99" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2">
       <c r="A100" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2">
       <c r="A101" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+    <row r="102" spans="1:2">
+      <c r="A102" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2">
       <c r="A103" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2">
       <c r="A104" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2">
       <c r="A105" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2">
       <c r="A106" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2">
       <c r="A107" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2">
       <c r="A108" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2">
       <c r="A109" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2">
       <c r="A110" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2">
       <c r="A111" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2">
       <c r="A112" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2">
       <c r="A113" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2">
       <c r="A114" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2">
       <c r="A115" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" t="s" s="0">
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2">
       <c r="A116" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" t="s" s="0">
         <v>168</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2">
       <c r="A117" s="6"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2">
       <c r="A118" s="6"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2">
       <c r="A119" s="6"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2">
       <c r="A120" s="6"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2">
       <c r="A121" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" t="s" s="0">
         <v>36</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2">
       <c r="A122" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" t="s" s="0">
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2">
       <c r="A123" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" t="s" s="0">
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2">
       <c r="A124" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" t="s" s="0">
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2">
       <c r="A125" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2">
       <c r="A126" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2">
       <c r="A127" s="6" t="s">
         <v>128</v>
       </c>
@@ -4531,457 +4603,457 @@
       <selection activeCell="B2" sqref="B2:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="3" max="3" customWidth="true" width="12.28515625"/>
+    <col min="10" max="10" customWidth="true" width="9.140625"/>
+    <col min="12" max="12" customWidth="true" width="11.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>10</v>
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>452</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>458</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2">
       <c r="A18" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="20" spans="1:2" ht="15" customHeight="1">
+      <c r="A20" t="s" s="0">
         <v>151</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2">
       <c r="A21" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2">
       <c r="A22" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2">
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2">
       <c r="A26" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2">
       <c r="A27" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2">
       <c r="A28" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2">
       <c r="A29" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2">
       <c r="A30" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2">
       <c r="A31" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2">
       <c r="A32" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2">
       <c r="A33" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2">
       <c r="A34" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2">
       <c r="A35" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2">
       <c r="A36" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2">
       <c r="A37" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2">
       <c r="A38" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2">
       <c r="A39" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2">
       <c r="A40" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" t="s" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2">
       <c r="A41" s="6" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2">
       <c r="A42" s="6" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2">
       <c r="A43" s="6" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2">
       <c r="A44" s="6" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2">
       <c r="A45" s="6" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2">
       <c r="A46" s="6" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2">
       <c r="A47" s="6" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2">
       <c r="A48" s="6" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2">
       <c r="A49" s="6" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2">
       <c r="A50" s="6" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2">
       <c r="A51" s="6"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2">
       <c r="A52" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" t="s" s="0">
         <v>538</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2">
       <c r="A53" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" t="s" s="0">
         <v>539</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2">
       <c r="A54" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" t="s" s="0">
         <v>540</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2">
       <c r="A55" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" t="s" s="0">
         <v>541</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2">
       <c r="A56" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" t="s" s="0">
         <v>542</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2">
       <c r="A57" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" t="s" s="0">
         <v>543</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3">
       <c r="C74" s="6"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3">
       <c r="A80" s="6"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1">
       <c r="A81" s="6"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1">
       <c r="A82" s="6"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1">
       <c r="A105" s="6"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
+    <row r="132" spans="1:2">
+      <c r="A132" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" t="s" s="0">
         <v>171</v>
       </c>
     </row>
@@ -4999,26 +5071,26 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.54296875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.81640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="12.85546875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="9.85546875"/>
+    <col min="3" max="3" customWidth="true" style="3" width="12.85546875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="9.85546875"/>
+    <col min="5" max="5" customWidth="true" style="3" width="12.85546875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="3" width="9.85546875"/>
+    <col min="7" max="7" customWidth="true" style="3" width="12.7109375"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="9.85546875"/>
+    <col min="9" max="9" customWidth="true" style="3" width="13.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="9.85546875"/>
+    <col min="11" max="11" customWidth="true" style="3" width="13.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="3" width="9.85546875"/>
+    <col min="13" max="13" customWidth="true" style="3" width="12.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="3" width="9.85546875"/>
+    <col min="15" max="16384" style="3" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15.75">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5062,493 +5134,493 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2" s="7"/>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="3">
         <v>341</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="3">
         <v>341</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="3">
         <v>341</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="3">
         <v>341</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="3">
         <v>341</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="3">
         <v>341</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="3">
         <v>341</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3" s="7"/>
-      <c r="B3"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="3">
         <v>341</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="3">
         <v>341</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="3">
         <v>341</v>
       </c>
       <c r="I3" s="7"/>
-      <c r="J3" t="s">
+      <c r="J3" t="s" s="3">
         <v>341</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" t="s" s="3">
         <v>341</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" t="s" s="3">
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4" s="7"/>
-      <c r="B4"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="3">
         <v>341</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="3">
         <v>341</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="3">
         <v>341</v>
       </c>
       <c r="I4" s="7"/>
-      <c r="J4" t="s">
+      <c r="J4" t="s" s="3">
         <v>341</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" t="s" s="3">
         <v>341</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" t="s" s="3">
         <v>341</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5" s="7"/>
-      <c r="B5"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="3">
         <v>341</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="3">
         <v>341</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="3">
         <v>341</v>
       </c>
       <c r="I5" s="7"/>
-      <c r="J5"/>
+      <c r="J5" s="3"/>
       <c r="K5" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" t="s" s="3">
         <v>341</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" t="s" s="3">
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6" s="7"/>
-      <c r="B6"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="3">
         <v>341</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F6"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" t="s" s="3">
         <v>341</v>
       </c>
       <c r="I6" s="7"/>
-      <c r="J6"/>
+      <c r="J6" s="3"/>
       <c r="K6" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" t="s" s="3">
         <v>341</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" t="s" s="3">
         <v>341</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7" s="7"/>
-      <c r="B7"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="3">
         <v>341</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F7"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" t="s" s="3">
         <v>341</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7"/>
+      <c r="J7" s="3"/>
       <c r="K7" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" t="s" s="3">
         <v>341</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" t="s" s="3">
         <v>341</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8" s="7"/>
-      <c r="B8"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="3">
         <v>341</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F8"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" t="s" s="3">
         <v>341</v>
       </c>
       <c r="I8" s="7"/>
-      <c r="J8"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" t="s" s="3">
         <v>341</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" t="s" s="3">
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="A9" s="7"/>
-      <c r="B9"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="3">
         <v>341</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="F9"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="H9"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="7"/>
       <c r="K9" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" t="s" s="3">
         <v>341</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" t="s" s="3">
         <v>341</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14">
       <c r="A10" s="7"/>
-      <c r="B10"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="3">
         <v>341</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="F10"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="H10"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="7"/>
       <c r="K10" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" t="s" s="3">
         <v>341</v>
       </c>
       <c r="M10" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" t="s" s="3">
         <v>341</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14">
       <c r="A11" s="7"/>
-      <c r="B11"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="3">
         <v>341</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="F11"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="H11"/>
+      <c r="H11" s="3"/>
       <c r="K11" s="10" t="s">
         <v>331</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" t="s" s="3">
         <v>341</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14">
       <c r="A12" s="7"/>
-      <c r="B12"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="3">
         <v>341</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="F12"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="H12"/>
+      <c r="H12" s="3"/>
       <c r="K12" s="10" t="s">
         <v>332</v>
       </c>
       <c r="M12" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" t="s" s="3">
         <v>341</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14">
       <c r="A13" s="7"/>
-      <c r="B13"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="D13"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="F13"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="H13"/>
+      <c r="H13" s="3"/>
       <c r="K13" s="10" t="s">
         <v>333</v>
       </c>
       <c r="M13" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" t="s" s="3">
         <v>341</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14" s="7"/>
-      <c r="B14"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="D14"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="F14"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="H14"/>
+      <c r="H14" s="3"/>
       <c r="K14" s="10" t="s">
         <v>334</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" t="s" s="3">
         <v>341</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14">
       <c r="A15" s="7"/>
-      <c r="B15"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="D15"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="F15"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="H15"/>
+      <c r="H15" s="3"/>
       <c r="K15" s="10" t="s">
         <v>335</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" t="s" s="3">
         <v>341</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14">
       <c r="A16" s="7"/>
-      <c r="B16"/>
+      <c r="B16" s="3"/>
       <c r="C16" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="D16"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="F16"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="H16"/>
+      <c r="H16" s="3"/>
       <c r="K16" s="10" t="s">
         <v>336</v>
       </c>
       <c r="M16" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" t="s" s="3">
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13">
       <c r="A17" s="7"/>
-      <c r="B17"/>
+      <c r="B17" s="3"/>
       <c r="C17" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="D17"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F17"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="H17"/>
+      <c r="H17" s="3"/>
       <c r="K17" s="10" t="s">
         <v>337</v>
       </c>
@@ -5556,21 +5628,21 @@
         <v>434</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13">
       <c r="A18" s="7"/>
-      <c r="B18"/>
+      <c r="B18" s="3"/>
       <c r="C18" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="D18"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="F18"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="H18"/>
+      <c r="H18" s="3"/>
       <c r="K18" s="10" t="s">
         <v>338</v>
       </c>
@@ -5578,21 +5650,21 @@
         <v>435</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13">
       <c r="A19" s="7"/>
-      <c r="B19"/>
+      <c r="B19" s="3"/>
       <c r="C19" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="D19"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="F19"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="H19"/>
+      <c r="H19" s="3"/>
       <c r="K19" s="10" t="s">
         <v>339</v>
       </c>
@@ -5600,18 +5672,18 @@
         <v>436</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13">
       <c r="A20" s="7"/>
-      <c r="B20"/>
-      <c r="D20"/>
+      <c r="B20" s="3"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="F20"/>
+      <c r="F20" s="3"/>
       <c r="G20" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="H20"/>
+      <c r="H20" s="3"/>
       <c r="K20" s="10" t="s">
         <v>340</v>
       </c>
@@ -5619,409 +5691,409 @@
         <v>437</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13">
       <c r="A21" s="7"/>
-      <c r="B21"/>
-      <c r="D21"/>
+      <c r="B21" s="3"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="F21"/>
-      <c r="H21"/>
+      <c r="F21" s="3"/>
+      <c r="H21" s="3"/>
       <c r="M21" s="7" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13">
       <c r="A22" s="7"/>
-      <c r="B22"/>
-      <c r="D22"/>
+      <c r="B22" s="3"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="F22"/>
-      <c r="H22"/>
+      <c r="F22" s="3"/>
+      <c r="H22" s="3"/>
       <c r="M22" s="7" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13">
       <c r="A23" s="7"/>
-      <c r="B23"/>
-      <c r="D23"/>
+      <c r="B23" s="3"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="F23"/>
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="7"/>
-      <c r="B24"/>
-      <c r="D24"/>
+      <c r="B24" s="3"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="F24"/>
-      <c r="H24"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="7"/>
-      <c r="B25"/>
-      <c r="D25"/>
+      <c r="B25" s="3"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="F25"/>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="7"/>
-      <c r="B26"/>
-      <c r="D26"/>
+      <c r="B26" s="3"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="F26"/>
+      <c r="F26" s="3"/>
       <c r="G26" s="7"/>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="7"/>
-      <c r="B27"/>
-      <c r="D27"/>
+      <c r="B27" s="3"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="F27"/>
+      <c r="F27" s="3"/>
       <c r="G27" s="7"/>
-      <c r="H27"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="7"/>
-      <c r="B28"/>
-      <c r="D28"/>
+      <c r="B28" s="3"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F28"/>
+      <c r="F28" s="3"/>
       <c r="G28" s="7"/>
-      <c r="H28"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="7"/>
-      <c r="B29"/>
-      <c r="D29"/>
+      <c r="B29" s="3"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="F29"/>
+      <c r="F29" s="3"/>
       <c r="G29" s="7"/>
-      <c r="H29"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="7"/>
-      <c r="B30"/>
-      <c r="D30"/>
+      <c r="B30" s="3"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="F30"/>
+      <c r="F30" s="3"/>
       <c r="G30" s="7"/>
-      <c r="H30"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="7"/>
-      <c r="B31"/>
-      <c r="D31"/>
+      <c r="B31" s="3"/>
+      <c r="D31" s="3"/>
       <c r="E31" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="F31"/>
+      <c r="F31" s="3"/>
       <c r="G31" s="7"/>
-      <c r="H31"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="7"/>
-      <c r="B32"/>
-      <c r="D32"/>
-      <c r="F32"/>
+      <c r="B32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="F32" s="3"/>
       <c r="G32" s="7"/>
-      <c r="H32"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="7"/>
-      <c r="B33"/>
-      <c r="D33"/>
-      <c r="F33"/>
+      <c r="B33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="F33" s="3"/>
       <c r="G33" s="7"/>
-      <c r="H33"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="7"/>
-      <c r="B34"/>
-      <c r="D34"/>
-      <c r="F34"/>
+      <c r="B34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="F34" s="3"/>
       <c r="G34" s="7"/>
-      <c r="H34"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="7"/>
-      <c r="B35"/>
-      <c r="D35"/>
-      <c r="F35"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="7"/>
-      <c r="B36"/>
-      <c r="D36"/>
-      <c r="F36"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="7"/>
-      <c r="B37"/>
-      <c r="D37"/>
-      <c r="F37"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="7"/>
-      <c r="B38"/>
-      <c r="D38"/>
-      <c r="F38"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="7"/>
-      <c r="B39"/>
-      <c r="D39"/>
-      <c r="F39"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="7"/>
-      <c r="B40"/>
-      <c r="D40"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B40" s="3"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="7"/>
-      <c r="B41"/>
-      <c r="D41"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B42"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B43"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B44"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B45"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B46"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B47"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B48"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B49"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B50"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B51"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B41" s="3"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:6">
       <c r="E52" s="7"/>
-      <c r="F52"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6">
       <c r="C53" s="7"/>
-      <c r="D53"/>
+      <c r="D53" s="3"/>
       <c r="E53" s="7"/>
-      <c r="F53"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6">
       <c r="C54" s="7"/>
-      <c r="D54"/>
+      <c r="D54" s="3"/>
       <c r="E54" s="7"/>
-      <c r="F54"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6">
       <c r="C55" s="7"/>
-      <c r="D55"/>
+      <c r="D55" s="3"/>
       <c r="E55" s="7"/>
-      <c r="F55"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6">
       <c r="C56" s="7"/>
-      <c r="D56"/>
+      <c r="D56" s="3"/>
       <c r="E56" s="7"/>
-      <c r="F56"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6">
       <c r="C57" s="7"/>
-      <c r="D57"/>
+      <c r="D57" s="3"/>
       <c r="E57" s="7"/>
-      <c r="F57"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6">
       <c r="C58" s="7"/>
-      <c r="D58"/>
+      <c r="D58" s="3"/>
       <c r="E58" s="7"/>
-      <c r="F58"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6">
       <c r="C59" s="7"/>
-      <c r="D59"/>
+      <c r="D59" s="3"/>
       <c r="E59" s="7"/>
-      <c r="F59"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="7"/>
       <c r="C60" s="7"/>
-      <c r="D60"/>
+      <c r="D60" s="3"/>
       <c r="E60" s="7"/>
-      <c r="F60"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="7"/>
       <c r="C61" s="7"/>
-      <c r="D61"/>
+      <c r="D61" s="3"/>
       <c r="E61" s="7"/>
-      <c r="F61"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="7"/>
       <c r="C62" s="7"/>
-      <c r="D62"/>
+      <c r="D62" s="3"/>
       <c r="E62" s="7"/>
-      <c r="F62"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="7"/>
       <c r="C63" s="7"/>
-      <c r="D63"/>
+      <c r="D63" s="3"/>
       <c r="E63" s="7"/>
-      <c r="F63"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="7"/>
       <c r="C64" s="7"/>
-      <c r="D64"/>
+      <c r="D64" s="3"/>
       <c r="E64" s="7"/>
-      <c r="F64"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="7"/>
       <c r="C65" s="7"/>
-      <c r="D65"/>
+      <c r="D65" s="3"/>
       <c r="E65" s="7"/>
-      <c r="F65"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="7"/>
       <c r="C66" s="7"/>
-      <c r="D66"/>
+      <c r="D66" s="3"/>
       <c r="E66" s="7"/>
-      <c r="F66"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="7"/>
       <c r="C67" s="7"/>
-      <c r="D67"/>
+      <c r="D67" s="3"/>
       <c r="E67" s="7"/>
-      <c r="F67"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="7"/>
       <c r="C68" s="7"/>
-      <c r="D68"/>
+      <c r="D68" s="3"/>
       <c r="E68" s="7"/>
-      <c r="F68"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="7"/>
       <c r="C69" s="7"/>
-      <c r="D69"/>
+      <c r="D69" s="3"/>
       <c r="E69" s="7"/>
-      <c r="F69"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="7"/>
       <c r="C70" s="7"/>
-      <c r="D70"/>
+      <c r="D70" s="3"/>
       <c r="E70" s="7"/>
-      <c r="F70"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:6">
       <c r="E71" s="7"/>
-      <c r="F71"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F72"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F73"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F74"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="1:6">
       <c r="C75" s="7"/>
-      <c r="F75"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F76"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F77"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F78"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F79"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F80"/>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F81"/>
-    </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F82"/>
-    </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F83"/>
-    </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F84"/>
-    </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F85"/>
-    </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F86"/>
-    </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F87"/>
-    </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F88"/>
-    </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F89"/>
-    </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F90"/>
-    </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F91"/>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="6:6">
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="6:6">
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="6:6">
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="6:6">
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="6:6">
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="6:6">
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="6:6">
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="6:6">
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="6:6">
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="6:6">
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="6:6">
+      <c r="F91" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6037,256 +6109,256 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.81640625" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.140625"/>
+    <col min="2" max="2" customWidth="true" width="35.85546875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="5" max="5" customWidth="true" width="18.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" t="s" s="0">
         <v>464</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>472</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" t="s" s="0">
         <v>463</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>473</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" t="s" s="0">
         <v>465</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" t="s" s="0">
         <v>515</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" t="s" s="0">
         <v>462</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" t="s" s="0">
         <v>513</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>452</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" t="s" s="0">
         <v>115</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>471</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" t="s" s="0">
         <v>454</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" t="s" s="0">
         <v>181</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" t="s" s="0">
         <v>112</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" t="s" s="0">
         <v>173</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" t="s" s="0">
         <v>172</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" t="s" s="0">
         <v>450</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" t="s" s="0">
         <v>514</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>517</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2">
       <c r="B22" s="5"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:2">
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:2">
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:2">
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:2">
       <c r="B32" s="5"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2">
       <c r="B33" s="5"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2">
       <c r="B34" s="5"/>
     </row>
   </sheetData>
@@ -6319,196 +6391,196 @@
       <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.42578125"/>
+    <col min="2" max="2" customWidth="true" width="18.5703125"/>
+    <col min="8" max="8" customWidth="true" width="9.140625"/>
+    <col min="10" max="10" customWidth="true" width="11.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" t="s" s="0">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="6"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" s="6"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" s="6"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" s="6"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" s="6"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" s="6"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9" s="6"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2">
       <c r="A10" s="6"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2">
       <c r="A11" s="6"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="A12" s="6"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2">
       <c r="A14" s="6"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2">
       <c r="A15" s="6"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2">
       <c r="A16" s="6"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1">
       <c r="A17" s="6"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1">
       <c r="A18" s="6"/>
     </row>
-    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" ht="15" customHeight="1"/>
+    <row r="21" spans="1:1">
       <c r="A21" s="6"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1">
       <c r="A22" s="6"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1">
       <c r="A23" s="6"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1">
       <c r="A24" s="6"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1">
       <c r="A25" s="6"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1">
       <c r="A26" s="6"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1">
       <c r="A27" s="6"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1">
       <c r="A28" s="6"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1">
       <c r="A29" s="6"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1">
       <c r="A30" s="6"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1">
       <c r="A31" s="6"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1">
       <c r="A32" s="6"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1">
       <c r="A33" s="6"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1">
       <c r="A34" s="6"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1">
       <c r="A35" s="6"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1">
       <c r="A36" s="6"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1">
       <c r="A37" s="6"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1">
       <c r="A38" s="6"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1">
       <c r="A39" s="6"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1">
       <c r="A40" s="6"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1">
       <c r="A41" s="6"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1">
       <c r="A42" s="6"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1">
       <c r="A43" s="6"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1">
       <c r="A44" s="6"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1">
       <c r="A45" s="6"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1">
       <c r="A46" s="6"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1">
       <c r="A47" s="6"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1">
       <c r="A48" s="6"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1">
       <c r="A49" s="6"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1">
       <c r="A50" s="6"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1">
       <c r="A51" s="6"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1">
       <c r="A52" s="6"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1">
       <c r="A53" s="6"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1">
       <c r="A55" s="6"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1">
       <c r="A56" s="6"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1">
       <c r="A57" s="6"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1">
       <c r="A80" s="6"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1">
       <c r="A81" s="6"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1">
       <c r="A82" s="6"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1">
       <c r="A105" s="6"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
+    <row r="132" spans="1:1">
+      <c r="A132" t="s" s="0">
         <v>170</v>
       </c>
     </row>
@@ -6521,20 +6593,98 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50DB6969-FCD4-4AC0-8731-C3FC2B56364B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="31.85546875"/>
+    <col min="3" max="3" customWidth="true" width="13.85546875"/>
+    <col min="4" max="4" customWidth="true" width="14.42578125"/>
+    <col min="5" max="5" customWidth="true" width="42.7109375"/>
+    <col min="6" max="6" customWidth="true" width="23.5703125"/>
+    <col min="7" max="7" customWidth="true" width="24.42578125"/>
+    <col min="8" max="8" customWidth="true" width="18.5703125"/>
+    <col min="9" max="9" customWidth="true" width="24.42578125"/>
+    <col min="10" max="10" customWidth="true" width="21.28515625"/>
+    <col min="11" max="11" customWidth="true" width="3.91796875" bestFit="true"/>
+    <col min="12" max="12" customWidth="true" width="14.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>544</v>
+    <row r="1" spans="1:12" s="14" customFormat="1">
+      <c r="A1" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="15" customFormat="1">
+      <c r="A2" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>565</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -6546,29 +6696,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9A6D5F-4ADD-40C7-BC29-FB462C3271E9}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="39.26953125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="39.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s" s="0">
+        <v>548</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -6585,7 +6735,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6597,7 +6747,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6611,256 +6761,256 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.81640625" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.140625"/>
+    <col min="2" max="2" customWidth="true" width="35.85546875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="5" max="5" customWidth="true" width="18.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" t="s" s="0">
         <v>464</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>472</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" t="s" s="0">
         <v>463</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>473</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" t="s" s="0">
         <v>465</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" t="s" s="0">
         <v>515</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" t="s" s="0">
         <v>462</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" t="s" s="0">
         <v>513</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>452</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" t="s" s="0">
         <v>115</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>471</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" t="s" s="0">
         <v>454</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" t="s" s="0">
         <v>181</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" t="s" s="0">
         <v>112</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" t="s" s="0">
         <v>173</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" t="s" s="0">
         <v>172</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" t="s" s="0">
         <v>450</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" t="s" s="0">
         <v>514</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>517</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2">
       <c r="B22" s="5"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:2">
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:2">
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:2">
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:2">
       <c r="B32" s="5"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2">
       <c r="B33" s="5"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2">
       <c r="B34" s="5"/>
     </row>
   </sheetData>
@@ -6893,14 +7043,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.5703125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="5.85546875"/>
+    <col min="3" max="3" customWidth="true" width="13.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
@@ -6908,37 +7058,37 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+    <row r="2" spans="1:2">
+      <c r="B2" t="s" s="0">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+    <row r="5" spans="1:2">
+      <c r="B5" t="s" s="0">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>100</v>
       </c>
     </row>
@@ -6955,131 +7105,131 @@
       <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125"/>
+    <col min="2" max="2" customWidth="true" width="18.42578125"/>
+    <col min="3" max="3" customWidth="true" width="13.7109375"/>
+    <col min="4" max="4" customWidth="true" width="20.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+    <row r="1" spans="1:4">
+      <c r="B1" t="s" s="0">
         <v>459</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>460</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>459</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>459</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>459</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>459</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>122</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>459</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>459</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>459</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>461</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11" s="6" t="s">
         <v>82</v>
       </c>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="A12" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4">
       <c r="A14" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4">
       <c r="A15" s="6" t="s">
         <v>85</v>
       </c>
@@ -7087,7 +7237,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4">
       <c r="A16" s="6" t="s">
         <v>86</v>
       </c>
@@ -7095,7 +7245,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="A17" s="6" t="s">
         <v>87</v>
       </c>
@@ -7106,7 +7256,7 @@
         <v>45480</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4">
       <c r="A18" s="6" t="s">
         <v>88</v>
       </c>
@@ -7114,7 +7264,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4">
       <c r="A19" s="6" t="s">
         <v>89</v>
       </c>
@@ -7122,7 +7272,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4">
       <c r="A20" s="6" t="s">
         <v>90</v>
       </c>
@@ -7130,7 +7280,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4">
       <c r="A21" s="6" t="s">
         <v>91</v>
       </c>
@@ -7138,7 +7288,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4">
       <c r="A22" s="6" t="s">
         <v>92</v>
       </c>
@@ -7146,50 +7296,50 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4">
       <c r="A23" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>459</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4">
       <c r="A24" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>459</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4">
       <c r="A25" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>459</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4">
       <c r="C26" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+    <row r="77" spans="1:2">
+      <c r="A77" t="s" s="0">
+        <v>544</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>545</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>546</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/test-data/qa7/testData.xlsx
+++ b/src/test/resources/test-data/qa7/testData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vigneshwaran.sesurag\Gradle\CPP_Automation-Chatr\src\test\resources\test-data\qa7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vigneshwaran.sesurag\Gradle\CPP_Automation-Chatr(Clone)\src\test\resources\test-data\qa7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000A5E55-DD4F-4251-A043-D568C0F4CBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBBE881-78C6-447C-93CA-6AF8B75A42DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="578">
   <si>
     <t>Voucher25</t>
   </si>
@@ -1770,6 +1770,18 @@
   </si>
   <si>
     <t>Chatr@123</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>72</t>
   </si>
 </sst>
 </file>
@@ -5529,10 +5541,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9A6D5F-4ADD-40C7-BC29-FB462C3271E9}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5676,15 +5688,117 @@
       </c>
     </row>
     <row r="4" spans="1:14">
+      <c r="A4" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="C4" s="5" t="s">
-        <v>572</v>
+        <v>545</v>
+      </c>
+      <c r="D4" t="s">
+        <v>552</v>
+      </c>
+      <c r="E4" t="s">
+        <v>575</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="G4" t="s">
+        <v>557</v>
+      </c>
+      <c r="H4" t="s">
+        <v>562</v>
+      </c>
+      <c r="I4" t="s">
+        <v>563</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="K4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="D5" t="s">
+        <v>552</v>
+      </c>
+      <c r="E5" t="s">
+        <v>575</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="G5" t="s">
+        <v>557</v>
+      </c>
+      <c r="H5" t="s">
+        <v>562</v>
+      </c>
+      <c r="I5" t="s">
+        <v>563</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="K5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="D6" t="s">
+        <v>552</v>
+      </c>
+      <c r="E6" t="s">
+        <v>575</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="G6" t="s">
+        <v>557</v>
+      </c>
+      <c r="H6" t="s">
+        <v>562</v>
+      </c>
+      <c r="I6" t="s">
+        <v>563</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="K6" t="s">
+        <v>565</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{3C80A37F-1BB2-4ED7-9BFE-1B1BF601C38C}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{F1D2BB13-1C81-4D90-8542-1476FF315AA6}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{379E461C-6E89-4160-A918-B8DAD61334CD}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{90B198B2-6FF2-4768-865C-4AE2F22D091E}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{78C3D959-BCE9-44C1-A054-62DE769C62A4}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{088FD480-FD89-44BB-B837-33D1A6A2BE5B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5697,7 +5811,16 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
+        <v>572</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{379E461C-6E89-4160-A918-B8DAD61334CD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
